--- a/docs/OVW Sheets/OVWDemo_product_listing.xlsx
+++ b/docs/OVW Sheets/OVWDemo_product_listing.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samaddel\Desktop\QA\7 dec\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7755" firstSheet="35" activeTab="47"/>
   </bookViews>
   <sheets>
     <sheet name="de_de" sheetId="1" r:id="rId1"/>
@@ -71,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1882" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1882" uniqueCount="425">
   <si>
     <t>http://www.cisco.com/web/DE/products/telepresence/products.html</t>
   </si>
@@ -1343,6 +1338,9 @@
   </si>
   <si>
     <t>http://www.cisco.com/web/BE/fr/solutions/borderless/prodportfolio.html</t>
+  </si>
+  <si>
+    <t>product-listing-var7</t>
   </si>
 </sst>
 </file>
@@ -1502,7 +1500,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1537,7 +1535,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1714,7 +1712,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1724,8 +1722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1804,7 +1802,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>424</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -1908,7 +1906,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1980,7 +1978,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>424</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -2078,7 +2076,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2140,7 +2138,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>424</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -2227,7 +2225,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2297,7 +2295,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>424</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -2394,7 +2392,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2466,7 +2464,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>424</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -2564,7 +2562,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2636,7 +2634,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>424</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -2734,7 +2732,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2804,7 +2802,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>424</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -2901,7 +2899,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2965,7 +2963,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>424</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -3052,7 +3050,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3124,7 +3122,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>424</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -3222,7 +3220,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3296,7 +3294,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>424</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -3394,7 +3392,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3466,7 +3464,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>424</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -3564,7 +3562,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3637,7 +3635,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>424</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -3734,7 +3732,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3806,7 +3804,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>424</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -3904,7 +3902,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3966,7 +3964,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>424</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -4202,7 +4200,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4274,7 +4272,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>424</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -4372,7 +4370,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4444,7 +4442,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>424</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -4542,7 +4540,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4604,7 +4602,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>424</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -4691,7 +4689,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4771,7 +4769,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>424</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -4869,7 +4867,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4948,7 +4946,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>424</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -5051,7 +5049,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5130,7 +5128,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>424</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -5234,7 +5232,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5314,7 +5312,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>424</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -5418,7 +5416,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5490,7 +5488,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>424</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -5588,7 +5586,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5660,7 +5658,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>424</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -5758,7 +5756,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5830,7 +5828,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>424</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -5928,7 +5926,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6002,7 +6000,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>424</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -6100,7 +6098,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6175,7 +6173,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>424</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -6273,7 +6271,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6348,7 +6346,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>424</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -6446,7 +6444,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6521,7 +6519,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>424</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -6785,7 +6783,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6860,7 +6858,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>424</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -6958,7 +6956,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7033,7 +7031,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>424</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -7131,7 +7129,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7205,7 +7203,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>424</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -7303,7 +7301,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7375,7 +7373,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>424</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -7473,7 +7471,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7548,7 +7546,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>424</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -7646,7 +7644,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7721,7 +7719,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>424</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -7819,7 +7817,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7894,7 +7892,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>424</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -7991,7 +7989,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8066,7 +8064,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>424</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -8164,7 +8162,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8239,7 +8237,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>424</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -8330,7 +8328,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8404,7 +8402,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>424</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -8502,7 +8500,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8576,7 +8574,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>424</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -8674,7 +8672,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8748,7 +8746,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>424</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -8845,8 +8843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8920,7 +8918,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>424</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -9018,7 +9016,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9090,7 +9088,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>424</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -9188,7 +9186,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9260,7 +9258,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>424</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -9358,7 +9356,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9430,7 +9428,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>424</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -9528,7 +9526,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9600,7 +9598,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>424</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -9697,7 +9695,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9767,7 +9765,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>424</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>

--- a/docs/OVW Sheets/OVWDemo_product_listing.xlsx
+++ b/docs/OVW Sheets/OVWDemo_product_listing.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7755" firstSheet="35" activeTab="47"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="de_de" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1882" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1672" uniqueCount="424">
   <si>
     <t>http://www.cisco.com/web/DE/products/telepresence/products.html</t>
   </si>
@@ -162,9 +162,6 @@
   </si>
   <si>
     <t>http://www.cisco.com/web/CN/solutions/borderless_networks/prodportfolio.html</t>
-  </si>
-  <si>
-    <t>NA</t>
   </si>
   <si>
     <t>http://www.cisco.com/web/CN/solutions/collaboration/collab_portfolio.html</t>
@@ -1712,7 +1709,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1722,7 +1719,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -1802,7 +1799,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -1916,7 +1913,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1930,7 +1927,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -1944,7 +1941,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -1958,7 +1955,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -1972,13 +1969,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -1986,7 +1983,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -2000,7 +1997,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -2014,7 +2011,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -2028,7 +2025,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -2042,7 +2039,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -2073,10 +2070,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection sqref="A1:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2085,136 +2082,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
+      <c r="A1" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+      <c r="A2" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+      <c r="A3" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
+        <v>24</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>424</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A8" r:id="rId1"/>
-    <hyperlink ref="A9" r:id="rId2"/>
-    <hyperlink ref="A10" r:id="rId3"/>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2222,10 +2135,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2235,7 +2148,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2249,7 +2162,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -2263,7 +2176,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -2277,7 +2190,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -2290,15 +2203,17 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>424</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2306,10 +2221,10 @@
         <v>110</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
@@ -2320,13 +2235,13 @@
         <v>111</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2334,7 +2249,7 @@
         <v>112</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
@@ -2348,26 +2263,12 @@
         <v>113</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2377,11 +2278,11 @@
     <hyperlink ref="A2" r:id="rId2"/>
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="A4" r:id="rId4"/>
-    <hyperlink ref="A6" r:id="rId5"/>
-    <hyperlink ref="A7" r:id="rId6"/>
-    <hyperlink ref="A8" r:id="rId7"/>
-    <hyperlink ref="A9" r:id="rId8"/>
-    <hyperlink ref="A10" r:id="rId9"/>
+    <hyperlink ref="A5" r:id="rId5"/>
+    <hyperlink ref="A6" r:id="rId6"/>
+    <hyperlink ref="A7" r:id="rId7"/>
+    <hyperlink ref="A8" r:id="rId8"/>
+    <hyperlink ref="A9" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2402,7 +2303,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2416,7 +2317,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -2430,7 +2331,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -2444,7 +2345,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -2458,13 +2359,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -2472,7 +2373,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -2486,7 +2387,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -2500,7 +2401,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -2514,7 +2415,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -2528,7 +2429,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -2572,7 +2473,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2586,7 +2487,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -2600,7 +2501,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -2614,7 +2515,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -2628,13 +2529,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -2642,7 +2543,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -2656,7 +2557,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -2670,7 +2571,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -2684,7 +2585,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -2698,7 +2599,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -2729,10 +2630,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2742,7 +2643,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2755,9 +2656,11 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+      <c r="A2" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -2771,7 +2674,7 @@
         <v>136</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -2785,13 +2688,13 @@
         <v>137</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>423</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2799,13 +2702,13 @@
         <v>138</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>424</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2813,10 +2716,10 @@
         <v>139</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
@@ -2827,13 +2730,13 @@
         <v>140</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2841,7 +2744,7 @@
         <v>141</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
@@ -2855,40 +2758,26 @@
         <v>142</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A4" r:id="rId3"/>
-    <hyperlink ref="A5" r:id="rId4"/>
-    <hyperlink ref="A6" r:id="rId5"/>
-    <hyperlink ref="A7" r:id="rId6"/>
-    <hyperlink ref="A8" r:id="rId7"/>
-    <hyperlink ref="A9" r:id="rId8"/>
-    <hyperlink ref="A10" r:id="rId9"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="A4" r:id="rId4"/>
+    <hyperlink ref="A5" r:id="rId5"/>
+    <hyperlink ref="A6" r:id="rId6"/>
+    <hyperlink ref="A7" r:id="rId7"/>
+    <hyperlink ref="A8" r:id="rId8"/>
+    <hyperlink ref="A9" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2896,10 +2785,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection sqref="A1:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2910,136 +2799,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>145</v>
+      </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+      <c r="A2" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>143</v>
+      </c>
       <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
+        <v>24</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>424</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A10" r:id="rId1"/>
-    <hyperlink ref="A9" r:id="rId2"/>
-    <hyperlink ref="A8" r:id="rId3"/>
+    <hyperlink ref="A3" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A1" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3060,7 +2865,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -3074,7 +2879,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -3088,7 +2893,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -3102,7 +2907,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -3116,13 +2921,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -3130,7 +2935,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -3144,7 +2949,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -3158,7 +2963,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -3172,7 +2977,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -3186,7 +2991,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -3232,7 +3037,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -3246,7 +3051,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -3260,7 +3065,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -3274,7 +3079,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -3288,13 +3093,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -3302,7 +3107,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -3316,7 +3121,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -3330,7 +3135,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -3344,7 +3149,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -3358,7 +3163,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -3402,7 +3207,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -3416,7 +3221,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -3430,7 +3235,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -3444,7 +3249,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -3458,13 +3263,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -3472,7 +3277,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -3486,7 +3291,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -3500,7 +3305,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -3514,7 +3319,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -3528,7 +3333,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -3559,10 +3364,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3628,53 +3433,53 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>424</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
@@ -3685,29 +3490,15 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3717,11 +3508,11 @@
     <hyperlink ref="A2" r:id="rId2"/>
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="A4" r:id="rId4"/>
-    <hyperlink ref="A6" r:id="rId5"/>
-    <hyperlink ref="A10" r:id="rId6"/>
-    <hyperlink ref="A7" r:id="rId7"/>
-    <hyperlink ref="A8" r:id="rId8"/>
-    <hyperlink ref="A9" r:id="rId9"/>
+    <hyperlink ref="A5" r:id="rId5"/>
+    <hyperlink ref="A9" r:id="rId6"/>
+    <hyperlink ref="A6" r:id="rId7"/>
+    <hyperlink ref="A7" r:id="rId8"/>
+    <hyperlink ref="A8" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3742,7 +3533,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -3756,7 +3547,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -3770,7 +3561,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -3784,7 +3575,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -3798,13 +3589,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -3812,7 +3603,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -3826,7 +3617,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -3840,7 +3631,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -3854,7 +3645,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -3868,7 +3659,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -3899,10 +3690,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection sqref="A1:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3911,136 +3702,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
+      <c r="A1" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+      <c r="A2" s="1" t="s">
+        <v>187</v>
+      </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+      <c r="A3" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
+        <v>24</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>424</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A8" r:id="rId1"/>
-    <hyperlink ref="A9" r:id="rId2"/>
-    <hyperlink ref="A10" r:id="rId3"/>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4048,10 +3755,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection sqref="A1:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4060,136 +3767,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
+      <c r="A1" s="1" t="s">
+        <v>189</v>
+      </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+      <c r="A2" s="1" t="s">
+        <v>190</v>
+      </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+      <c r="A3" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
+        <v>24</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A8" r:id="rId1"/>
-    <hyperlink ref="A9" r:id="rId2"/>
-    <hyperlink ref="A10" r:id="rId3"/>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4210,7 +3833,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -4224,7 +3847,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -4238,7 +3861,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -4252,7 +3875,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -4266,13 +3889,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -4280,7 +3903,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -4294,7 +3917,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -4308,7 +3931,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -4322,7 +3945,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -4336,7 +3959,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -4380,7 +4003,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -4394,7 +4017,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -4408,7 +4031,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -4422,7 +4045,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -4436,13 +4059,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -4450,7 +4073,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -4464,7 +4087,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -4478,7 +4101,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -4492,7 +4115,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -4506,7 +4129,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -4537,10 +4160,10 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection sqref="A1:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4549,136 +4172,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
+      <c r="A1" s="2" t="s">
+        <v>212</v>
+      </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+      <c r="A2" s="2" t="s">
+        <v>213</v>
+      </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+      <c r="A3" s="2" t="s">
+        <v>214</v>
+      </c>
       <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
+        <v>24</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>424</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A8" r:id="rId1"/>
-    <hyperlink ref="A9" r:id="rId2"/>
-    <hyperlink ref="A10" r:id="rId3"/>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4686,10 +4225,10 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4703,160 +4242,70 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>235</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>423</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>32</v>
+        <v>236</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>32</v>
+      <c r="A3" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>32</v>
+        <v>238</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
+        <v>24</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>424</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A10" r:id="rId1"/>
-    <hyperlink ref="A9" r:id="rId2"/>
-    <hyperlink ref="A8" r:id="rId3"/>
-    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A4" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A2" r:id="rId3"/>
+    <hyperlink ref="A1" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4864,10 +4313,10 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4880,7 +4329,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -4895,7 +4344,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -4910,7 +4359,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -4925,7 +4374,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -4939,17 +4388,17 @@
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>32</v>
+      <c r="A5" s="2" t="s">
+        <v>243</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>424</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E5" s="5"/>
     </row>
@@ -4958,10 +4407,10 @@
         <v>244</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
@@ -4969,17 +4418,17 @@
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>245</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E7" s="5"/>
     </row>
@@ -4988,7 +4437,7 @@
         <v>246</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
@@ -5003,30 +4452,15 @@
         <v>247</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
       </c>
       <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5034,11 +4468,11 @@
     <hyperlink ref="A2" r:id="rId2"/>
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="A4" r:id="rId4"/>
-    <hyperlink ref="A6" r:id="rId5"/>
-    <hyperlink ref="A7" r:id="rId6"/>
-    <hyperlink ref="A8" r:id="rId7"/>
-    <hyperlink ref="A9" r:id="rId8"/>
-    <hyperlink ref="A10" r:id="rId9"/>
+    <hyperlink ref="A5" r:id="rId5"/>
+    <hyperlink ref="A6" r:id="rId6"/>
+    <hyperlink ref="A7" r:id="rId7"/>
+    <hyperlink ref="A8" r:id="rId8"/>
+    <hyperlink ref="A9" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5062,7 +4496,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -5077,7 +4511,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -5092,7 +4526,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -5107,7 +4541,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -5122,13 +4556,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -5137,7 +4571,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -5152,7 +4586,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -5167,7 +4601,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -5182,7 +4616,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -5197,7 +4631,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -5246,7 +4680,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -5261,7 +4695,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -5276,7 +4710,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -5291,7 +4725,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -5306,13 +4740,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -5321,7 +4755,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -5336,7 +4770,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -5351,7 +4785,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -5366,7 +4800,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -5381,7 +4815,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -5426,7 +4860,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -5440,7 +4874,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -5454,7 +4888,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -5468,7 +4902,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -5482,13 +4916,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -5496,7 +4930,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -5510,7 +4944,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -5524,7 +4958,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -5538,7 +4972,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -5552,7 +4986,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -5596,7 +5030,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -5610,7 +5044,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -5624,7 +5058,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -5638,7 +5072,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -5652,13 +5086,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -5666,7 +5100,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -5680,7 +5114,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -5694,7 +5128,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -5708,7 +5142,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -5722,7 +5156,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -5766,7 +5200,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -5780,7 +5214,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -5794,7 +5228,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -5808,7 +5242,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -5822,13 +5256,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -5836,7 +5270,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -5850,7 +5284,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -5864,7 +5298,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -5878,7 +5312,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -5892,7 +5326,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -5938,7 +5372,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -5952,7 +5386,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -5966,7 +5400,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -5980,7 +5414,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -5994,13 +5428,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -6008,7 +5442,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -6022,7 +5456,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -6036,7 +5470,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -6050,7 +5484,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -6064,7 +5498,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -6111,7 +5545,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -6125,7 +5559,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -6139,7 +5573,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -6153,7 +5587,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -6167,13 +5601,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -6181,7 +5615,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -6195,7 +5629,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -6209,7 +5643,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -6223,7 +5657,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -6237,7 +5671,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -6284,7 +5718,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -6298,7 +5732,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -6312,7 +5746,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -6326,7 +5760,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -6340,13 +5774,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -6354,7 +5788,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -6368,7 +5802,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -6382,7 +5816,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -6396,7 +5830,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -6410,7 +5844,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -6457,7 +5891,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -6471,7 +5905,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -6485,7 +5919,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -6499,7 +5933,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -6513,13 +5947,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -6527,7 +5961,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -6541,7 +5975,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -6555,7 +5989,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -6569,7 +6003,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -6583,7 +6017,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -6614,10 +6048,10 @@
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection sqref="A1:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6629,150 +6063,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>32</v>
+      <c r="A1" s="1" t="s">
+        <v>308</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>32</v>
+      <c r="A2" s="1" t="s">
+        <v>309</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>32</v>
+      <c r="A3" s="1" t="s">
+        <v>310</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
+        <v>24</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A8" r:id="rId1"/>
-    <hyperlink ref="A9" r:id="rId2"/>
-    <hyperlink ref="A10" r:id="rId3"/>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6796,7 +6132,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -6810,7 +6146,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -6824,7 +6160,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -6838,7 +6174,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -6852,13 +6188,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -6866,7 +6202,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -6880,7 +6216,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -6894,7 +6230,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -6908,7 +6244,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -6922,7 +6258,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -6969,7 +6305,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -6983,7 +6319,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -6997,7 +6333,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -7011,7 +6347,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -7025,13 +6361,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -7039,7 +6375,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -7053,7 +6389,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -7067,7 +6403,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -7081,7 +6417,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -7095,7 +6431,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -7141,7 +6477,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -7155,7 +6491,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -7169,7 +6505,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -7183,7 +6519,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -7197,13 +6533,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -7211,7 +6547,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -7225,7 +6561,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -7239,7 +6575,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -7253,7 +6589,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -7267,7 +6603,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -7311,7 +6647,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -7325,7 +6661,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -7339,7 +6675,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -7353,7 +6689,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -7367,13 +6703,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -7381,7 +6717,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -7395,7 +6731,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -7409,7 +6745,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -7423,7 +6759,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -7437,7 +6773,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -7484,7 +6820,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -7498,7 +6834,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -7512,7 +6848,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -7526,7 +6862,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -7540,13 +6876,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -7554,7 +6890,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -7568,7 +6904,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -7582,7 +6918,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -7596,7 +6932,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -7610,7 +6946,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -7657,7 +6993,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -7671,7 +7007,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -7685,7 +7021,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -7699,7 +7035,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -7713,13 +7049,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -7727,7 +7063,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -7741,7 +7077,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -7755,7 +7091,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -7769,7 +7105,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -7783,7 +7119,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -7814,10 +7150,10 @@
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7830,7 +7166,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -7844,7 +7180,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -7858,7 +7194,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -7872,7 +7208,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -7885,17 +7221,17 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>32</v>
+      <c r="A5" s="2" t="s">
+        <v>365</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>424</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -7903,27 +7239,27 @@
         <v>366</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>367</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -7931,7 +7267,7 @@
         <v>368</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
@@ -7945,36 +7281,22 @@
         <v>369</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A10" r:id="rId1"/>
-    <hyperlink ref="A9" r:id="rId2"/>
-    <hyperlink ref="A8" r:id="rId3"/>
-    <hyperlink ref="A7" r:id="rId4"/>
-    <hyperlink ref="A6" r:id="rId5"/>
+    <hyperlink ref="A9" r:id="rId1"/>
+    <hyperlink ref="A8" r:id="rId2"/>
+    <hyperlink ref="A7" r:id="rId3"/>
+    <hyperlink ref="A6" r:id="rId4"/>
+    <hyperlink ref="A5" r:id="rId5"/>
     <hyperlink ref="A4" r:id="rId6"/>
     <hyperlink ref="A3" r:id="rId7"/>
     <hyperlink ref="A2" r:id="rId8"/>
@@ -8002,7 +7324,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -8016,7 +7338,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -8030,7 +7352,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -8044,7 +7366,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -8058,13 +7380,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -8072,7 +7394,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -8086,7 +7408,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -8100,7 +7422,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -8114,7 +7436,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -8128,7 +7450,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -8159,10 +7481,10 @@
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection sqref="A1:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8175,149 +7497,51 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>380</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>32</v>
+      <c r="A2" s="2" t="s">
+        <v>381</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>32</v>
+        <v>382</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
+        <v>24</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>424</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A10" r:id="rId1"/>
-    <hyperlink ref="A9" r:id="rId2"/>
-    <hyperlink ref="A8" r:id="rId3"/>
+    <hyperlink ref="A3" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A1" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8340,7 +7564,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -8354,7 +7578,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -8368,7 +7592,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -8382,7 +7606,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -8396,13 +7620,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -8410,7 +7634,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -8424,7 +7648,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -8438,7 +7662,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -8452,7 +7676,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -8466,7 +7690,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -8512,7 +7736,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -8526,7 +7750,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -8540,7 +7764,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -8554,7 +7778,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -8568,13 +7792,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -8582,7 +7806,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -8596,7 +7820,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -8610,7 +7834,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -8624,7 +7848,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -8638,7 +7862,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -8684,7 +7908,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -8698,7 +7922,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -8712,7 +7936,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -8726,7 +7950,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -8740,13 +7964,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -8754,7 +7978,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -8768,7 +7992,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -8782,7 +8006,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -8796,7 +8020,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -8810,7 +8034,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -8843,7 +8067,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -8856,7 +8080,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -8870,7 +8094,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -8884,7 +8108,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -8898,7 +8122,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -8912,13 +8136,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -8926,7 +8150,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -8940,7 +8164,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -8954,7 +8178,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -8968,7 +8192,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -8982,7 +8206,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -9026,7 +8250,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -9040,7 +8264,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -9054,7 +8278,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -9068,7 +8292,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -9082,13 +8306,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -9096,7 +8320,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -9110,7 +8334,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -9124,7 +8348,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -9138,7 +8362,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -9152,7 +8376,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -9196,7 +8420,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -9210,7 +8434,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -9224,7 +8448,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -9238,7 +8462,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -9252,13 +8476,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -9266,7 +8490,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -9280,7 +8504,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -9294,7 +8518,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -9308,7 +8532,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -9322,7 +8546,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -9366,7 +8590,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -9380,7 +8604,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -9394,7 +8618,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -9408,7 +8632,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -9422,13 +8646,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -9436,7 +8660,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -9450,7 +8674,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -9464,7 +8688,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -9478,7 +8702,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -9492,7 +8716,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -9523,10 +8747,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9536,7 +8760,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -9550,7 +8774,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -9564,7 +8788,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -9578,7 +8802,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -9591,17 +8815,17 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>32</v>
+      <c r="A5" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>424</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -9609,10 +8833,10 @@
         <v>79</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
@@ -9623,13 +8847,13 @@
         <v>80</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -9637,7 +8861,7 @@
         <v>81</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
@@ -9651,26 +8875,12 @@
         <v>82</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s">
         <v>12</v>
       </c>
     </row>
@@ -9680,11 +8890,11 @@
     <hyperlink ref="A2" r:id="rId2"/>
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="A4" r:id="rId4"/>
-    <hyperlink ref="A6" r:id="rId5"/>
-    <hyperlink ref="A7" r:id="rId6"/>
-    <hyperlink ref="A8" r:id="rId7"/>
-    <hyperlink ref="A9" r:id="rId8"/>
-    <hyperlink ref="A10" r:id="rId9"/>
+    <hyperlink ref="A5" r:id="rId5"/>
+    <hyperlink ref="A6" r:id="rId6"/>
+    <hyperlink ref="A7" r:id="rId7"/>
+    <hyperlink ref="A8" r:id="rId8"/>
+    <hyperlink ref="A9" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9692,10 +8902,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9705,7 +8915,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -9718,9 +8928,11 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+      <c r="A2" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -9734,7 +8946,7 @@
         <v>85</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -9748,13 +8960,13 @@
         <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>423</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -9762,13 +8974,13 @@
         <v>87</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>424</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -9776,10 +8988,10 @@
         <v>88</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
@@ -9790,13 +9002,13 @@
         <v>89</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -9804,7 +9016,7 @@
         <v>90</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
@@ -9818,40 +9030,26 @@
         <v>91</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A4" r:id="rId3"/>
-    <hyperlink ref="A5" r:id="rId4"/>
-    <hyperlink ref="A6" r:id="rId5"/>
-    <hyperlink ref="A7" r:id="rId6"/>
-    <hyperlink ref="A8" r:id="rId7"/>
-    <hyperlink ref="A9" r:id="rId8"/>
-    <hyperlink ref="A10" r:id="rId9"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="A4" r:id="rId4"/>
+    <hyperlink ref="A5" r:id="rId5"/>
+    <hyperlink ref="A6" r:id="rId6"/>
+    <hyperlink ref="A7" r:id="rId7"/>
+    <hyperlink ref="A8" r:id="rId8"/>
+    <hyperlink ref="A9" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/OVW Sheets/OVWDemo_product_listing.xlsx
+++ b/docs/OVW Sheets/OVWDemo_product_listing.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7755" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="de_de" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1672" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1672" uniqueCount="434">
   <si>
     <t>http://www.cisco.com/web/DE/products/telepresence/products.html</t>
   </si>
@@ -1338,6 +1338,36 @@
   </si>
   <si>
     <t>product-listing-var7</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/RU/products/telepresence/products.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/RU/products/webex/products.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/RU/products/collaboration/products.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/RU/products/voice/products.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/RU/solutions/sp/product-listing.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/RU/products/uc/products.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/RU/products/storage/products.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/RU/solutions/collaboration/products.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/RU/solutions/datacenter/products.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/RU/solutions/borderless/prodportfolio.html</t>
   </si>
 </sst>
 </file>
@@ -1428,7 +1458,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -1436,6 +1466,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1709,7 +1740,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1719,7 +1750,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -6636,8 +6667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6646,8 +6677,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>34</v>
+      <c r="A1" s="7" t="s">
+        <v>424</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -6661,7 +6692,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>425</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -6675,7 +6706,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>36</v>
+        <v>426</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -6689,7 +6720,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>427</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -6703,7 +6734,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>428</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -6717,7 +6748,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>39</v>
+        <v>429</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -6730,8 +6761,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>40</v>
+      <c r="A7" s="1" t="s">
+        <v>430</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -6744,8 +6775,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>41</v>
+      <c r="A8" s="2" t="s">
+        <v>431</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -6758,8 +6789,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>42</v>
+      <c r="A9" s="2" t="s">
+        <v>432</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -6772,8 +6803,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>43</v>
+      <c r="A10" s="2" t="s">
+        <v>433</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -6788,17 +6819,17 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink ref="A2" r:id="rId2"/>
-    <hyperlink ref="A3" r:id="rId3"/>
-    <hyperlink ref="A4" r:id="rId4"/>
-    <hyperlink ref="A5" r:id="rId5"/>
-    <hyperlink ref="A6" r:id="rId6" display="http://www.cisco.com/cisco/web/UK/products/unified_computing/services.html"/>
-    <hyperlink ref="A7" r:id="rId7"/>
-    <hyperlink ref="A8" r:id="rId8"/>
-    <hyperlink ref="A9" r:id="rId9"/>
-    <hyperlink ref="A10" r:id="rId10"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A6" r:id="rId5"/>
+    <hyperlink ref="A7" r:id="rId6"/>
+    <hyperlink ref="A8" r:id="rId7"/>
+    <hyperlink ref="A9" r:id="rId8"/>
+    <hyperlink ref="A10" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
 

--- a/docs/OVW Sheets/OVWDemo_product_listing.xlsx
+++ b/docs/OVW Sheets/OVWDemo_product_listing.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OVW Migration Dec 10\OVWMigration\docs\OVW Sheets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7755" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="de_de" sheetId="1" r:id="rId1"/>
@@ -143,9 +148,6 @@
     <t>enterprise-networks</t>
   </si>
   <si>
-    <t>http://www.cisco.com/c/en/us/products/storage-networking/product-listing.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/CN/products/products_netsol/telepresence/products.html</t>
   </si>
   <si>
@@ -1368,13 +1370,16 @@
   </si>
   <si>
     <t>http://www.cisco.com/web/RU/solutions/borderless/prodportfolio.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/CN/products/products_netsol/storage_networking/products.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1393,6 +1398,26 @@
       <u/>
       <sz val="11"/>
       <color indexed="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1451,12 +1476,64 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1465,12 +1542,40 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="30">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink 10" xfId="23"/>
+    <cellStyle name="Hyperlink 11" xfId="24"/>
+    <cellStyle name="Hyperlink 12" xfId="27"/>
+    <cellStyle name="Hyperlink 13" xfId="26"/>
+    <cellStyle name="Hyperlink 2" xfId="2"/>
+    <cellStyle name="Hyperlink 2 2" xfId="28"/>
+    <cellStyle name="Hyperlink 3" xfId="29"/>
+    <cellStyle name="Hyperlink 5" xfId="22"/>
+    <cellStyle name="Hyperlink 6" xfId="25"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="3"/>
+    <cellStyle name="Normal 2 10" xfId="4"/>
+    <cellStyle name="Normal 2 112" xfId="5"/>
+    <cellStyle name="Normal 2 13" xfId="6"/>
+    <cellStyle name="Normal 2 14" xfId="7"/>
+    <cellStyle name="Normal 2 15" xfId="8"/>
+    <cellStyle name="Normal 2 17" xfId="9"/>
+    <cellStyle name="Normal 2 18" xfId="10"/>
+    <cellStyle name="Normal 2 2 2" xfId="11"/>
+    <cellStyle name="Normal 2 3 2" xfId="12"/>
+    <cellStyle name="Normal 2 36" xfId="13"/>
+    <cellStyle name="Normal 2 51" xfId="14"/>
+    <cellStyle name="Normal 2 67" xfId="15"/>
+    <cellStyle name="Normal 2 82" xfId="16"/>
+    <cellStyle name="Normal 2 99" xfId="17"/>
+    <cellStyle name="Normal 4 2" xfId="18"/>
+    <cellStyle name="Normal 5" xfId="19"/>
+    <cellStyle name="Normal 6" xfId="20"/>
+    <cellStyle name="Normal 7" xfId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1740,7 +1845,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1751,7 +1856,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1830,7 +1935,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -1944,7 +2049,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1958,7 +2063,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -1972,7 +2077,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -1986,7 +2091,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -2000,13 +2105,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -2014,7 +2119,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -2028,7 +2133,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -2042,7 +2147,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -2056,7 +2161,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -2070,7 +2175,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -2114,7 +2219,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B1" t="s">
         <v>20</v>
@@ -2128,7 +2233,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
@@ -2142,7 +2247,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -2179,7 +2284,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2193,7 +2298,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -2207,7 +2312,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -2221,7 +2326,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -2235,7 +2340,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
@@ -2249,7 +2354,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
@@ -2263,7 +2368,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
@@ -2277,7 +2382,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B8" t="s">
         <v>22</v>
@@ -2291,7 +2396,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -2334,7 +2439,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2348,7 +2453,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -2362,7 +2467,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -2376,7 +2481,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -2390,13 +2495,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -2404,7 +2509,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -2418,7 +2523,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -2432,7 +2537,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -2446,7 +2551,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -2460,7 +2565,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -2504,7 +2609,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2518,7 +2623,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -2532,7 +2637,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -2546,7 +2651,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -2560,13 +2665,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -2574,7 +2679,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -2588,7 +2693,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -2602,7 +2707,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -2616,7 +2721,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -2630,7 +2735,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -2674,7 +2779,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2688,7 +2793,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -2702,7 +2807,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -2716,13 +2821,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -2730,7 +2835,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
@@ -2744,7 +2849,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
@@ -2758,7 +2863,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
@@ -2772,7 +2877,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B8" t="s">
         <v>22</v>
@@ -2786,7 +2891,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -2831,7 +2936,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B1" t="s">
         <v>20</v>
@@ -2845,7 +2950,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
@@ -2859,7 +2964,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -2896,7 +3001,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2910,7 +3015,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -2924,7 +3029,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -2938,7 +3043,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -2952,13 +3057,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -2966,7 +3071,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -2980,7 +3085,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -2994,7 +3099,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -3008,7 +3113,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -3022,7 +3127,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -3068,7 +3173,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -3082,7 +3187,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -3096,7 +3201,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -3110,7 +3215,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -3124,13 +3229,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -3138,7 +3243,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -3152,7 +3257,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -3166,7 +3271,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -3180,7 +3285,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -3194,7 +3299,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -3238,7 +3343,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -3252,7 +3357,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -3266,7 +3371,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -3280,7 +3385,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -3294,13 +3399,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -3308,7 +3413,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -3322,7 +3427,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -3336,7 +3441,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -3350,7 +3455,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -3364,7 +3469,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -3397,19 +3502,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="60.28515625" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" customWidth="1"/>
+    <col min="1" max="1" width="87.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -3423,7 +3529,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -3437,7 +3543,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -3451,7 +3557,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -3465,7 +3571,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
@@ -3478,8 +3584,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>25</v>
+      <c r="A6" s="7" t="s">
+        <v>433</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
@@ -3493,7 +3599,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
@@ -3507,7 +3613,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
         <v>22</v>
@@ -3521,7 +3627,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -3541,9 +3647,9 @@
     <hyperlink ref="A4" r:id="rId4"/>
     <hyperlink ref="A5" r:id="rId5"/>
     <hyperlink ref="A9" r:id="rId6"/>
-    <hyperlink ref="A6" r:id="rId7"/>
-    <hyperlink ref="A7" r:id="rId8"/>
-    <hyperlink ref="A8" r:id="rId9"/>
+    <hyperlink ref="A7" r:id="rId7"/>
+    <hyperlink ref="A8" r:id="rId8"/>
+    <hyperlink ref="A6" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3564,7 +3670,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -3578,7 +3684,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -3592,7 +3698,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -3606,7 +3712,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -3620,13 +3726,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -3634,7 +3740,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -3648,7 +3754,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -3662,7 +3768,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -3676,7 +3782,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -3690,7 +3796,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -3734,7 +3840,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B1" t="s">
         <v>20</v>
@@ -3748,7 +3854,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
@@ -3762,7 +3868,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -3799,7 +3905,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B1" t="s">
         <v>20</v>
@@ -3813,7 +3919,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
@@ -3827,7 +3933,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -3864,7 +3970,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -3878,7 +3984,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -3892,7 +3998,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -3906,7 +4012,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -3920,13 +4026,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -3934,7 +4040,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -3948,7 +4054,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -3962,7 +4068,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -3976,7 +4082,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -3990,7 +4096,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -4034,7 +4140,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -4048,7 +4154,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -4062,7 +4168,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -4076,7 +4182,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -4090,13 +4196,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -4104,7 +4210,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -4118,7 +4224,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -4132,7 +4238,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -4146,7 +4252,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -4160,7 +4266,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -4204,7 +4310,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B1" t="s">
         <v>20</v>
@@ -4218,7 +4324,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
@@ -4232,7 +4338,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -4273,13 +4379,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B1" t="s">
         <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D1" t="s">
         <v>12</v>
@@ -4288,7 +4394,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
@@ -4303,7 +4409,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
@@ -4318,7 +4424,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -4360,7 +4466,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -4375,7 +4481,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -4390,7 +4496,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -4405,7 +4511,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -4420,7 +4526,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
@@ -4435,7 +4541,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
@@ -4450,7 +4556,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
@@ -4465,7 +4571,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B8" t="s">
         <v>22</v>
@@ -4480,7 +4586,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -4527,7 +4633,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -4542,7 +4648,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -4557,7 +4663,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -4572,7 +4678,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -4587,13 +4693,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -4602,7 +4708,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -4617,7 +4723,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -4632,7 +4738,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -4647,7 +4753,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -4662,7 +4768,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -4711,7 +4817,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -4726,7 +4832,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -4741,7 +4847,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -4756,7 +4862,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -4771,13 +4877,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -4786,7 +4892,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -4801,7 +4907,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -4816,7 +4922,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -4831,7 +4937,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -4846,7 +4952,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -4891,7 +4997,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -4905,7 +5011,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -4919,7 +5025,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -4933,7 +5039,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -4947,13 +5053,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -4961,7 +5067,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -4975,7 +5081,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -4989,7 +5095,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -5003,7 +5109,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -5017,7 +5123,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -5061,7 +5167,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -5075,7 +5181,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -5089,7 +5195,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -5103,7 +5209,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -5117,13 +5223,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -5131,7 +5237,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -5145,7 +5251,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -5159,7 +5265,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -5173,7 +5279,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -5187,7 +5293,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -5231,7 +5337,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -5245,7 +5351,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -5259,7 +5365,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -5273,7 +5379,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -5287,13 +5393,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -5301,7 +5407,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -5315,7 +5421,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -5329,7 +5435,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -5343,7 +5449,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -5357,7 +5463,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -5403,7 +5509,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -5417,7 +5523,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -5431,7 +5537,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -5445,7 +5551,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -5459,13 +5565,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -5473,7 +5579,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -5487,7 +5593,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -5501,7 +5607,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -5515,7 +5621,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -5529,7 +5635,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -5576,7 +5682,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -5590,7 +5696,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -5604,7 +5710,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -5618,7 +5724,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -5632,13 +5738,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -5646,7 +5752,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -5660,7 +5766,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -5674,7 +5780,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -5688,7 +5794,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -5702,7 +5808,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -5749,7 +5855,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -5763,7 +5869,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -5777,7 +5883,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -5791,7 +5897,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -5805,13 +5911,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -5819,7 +5925,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -5833,7 +5939,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -5847,7 +5953,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -5861,7 +5967,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -5875,7 +5981,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -5922,7 +6028,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -5936,7 +6042,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -5950,7 +6056,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -5964,7 +6070,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -5978,13 +6084,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -5992,7 +6098,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -6006,7 +6112,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -6020,7 +6126,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -6034,7 +6140,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -6048,7 +6154,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -6095,7 +6201,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B1" t="s">
         <v>20</v>
@@ -6109,7 +6215,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
@@ -6123,7 +6229,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -6163,7 +6269,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -6177,7 +6283,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -6191,7 +6297,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -6205,7 +6311,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -6219,13 +6325,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -6233,7 +6339,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -6247,7 +6353,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -6261,7 +6367,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -6275,7 +6381,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -6289,7 +6395,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -6336,7 +6442,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -6350,7 +6456,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -6364,7 +6470,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -6378,7 +6484,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -6392,13 +6498,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -6406,7 +6512,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -6420,7 +6526,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -6434,7 +6540,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -6448,7 +6554,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -6462,7 +6568,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -6508,7 +6614,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -6522,7 +6628,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -6536,7 +6642,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -6550,7 +6656,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -6564,13 +6670,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -6578,7 +6684,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -6592,7 +6698,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -6606,7 +6712,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -6620,7 +6726,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -6634,7 +6740,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -6667,7 +6773,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -6677,8 +6783,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>424</v>
+      <c r="A1" s="6" t="s">
+        <v>423</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -6692,7 +6798,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -6706,7 +6812,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -6720,7 +6826,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -6734,13 +6840,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -6748,7 +6854,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -6762,7 +6868,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -6776,7 +6882,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -6790,7 +6896,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -6804,7 +6910,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -6851,7 +6957,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -6865,7 +6971,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -6879,7 +6985,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -6893,7 +6999,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -6907,13 +7013,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -6921,7 +7027,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -6935,7 +7041,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -6949,7 +7055,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -6963,7 +7069,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -6977,7 +7083,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -7024,7 +7130,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -7038,7 +7144,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -7052,7 +7158,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -7066,7 +7172,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -7080,13 +7186,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -7094,7 +7200,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -7108,7 +7214,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -7122,7 +7228,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -7136,7 +7242,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -7150,7 +7256,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -7197,7 +7303,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -7211,7 +7317,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -7225,7 +7331,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -7239,7 +7345,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -7253,7 +7359,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
@@ -7267,7 +7373,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
@@ -7281,7 +7387,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
@@ -7295,7 +7401,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B8" t="s">
         <v>22</v>
@@ -7309,7 +7415,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -7355,7 +7461,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -7369,7 +7475,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -7383,7 +7489,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -7397,7 +7503,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -7411,13 +7517,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -7425,7 +7531,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -7439,7 +7545,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -7453,7 +7559,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -7467,7 +7573,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -7481,7 +7587,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -7528,7 +7634,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B1" t="s">
         <v>20</v>
@@ -7542,7 +7648,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
@@ -7556,7 +7662,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -7595,7 +7701,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -7609,7 +7715,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -7623,7 +7729,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -7637,7 +7743,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -7651,13 +7757,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -7665,7 +7771,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -7679,7 +7785,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -7693,7 +7799,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -7707,7 +7813,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -7721,7 +7827,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -7767,7 +7873,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -7781,7 +7887,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -7795,7 +7901,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -7809,7 +7915,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -7823,13 +7929,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -7837,7 +7943,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -7851,7 +7957,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -7865,7 +7971,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -7879,7 +7985,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -7893,7 +7999,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -7939,7 +8045,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -7953,7 +8059,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -7967,7 +8073,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -7981,7 +8087,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -7995,13 +8101,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -8009,7 +8115,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -8023,7 +8129,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -8037,7 +8143,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -8051,7 +8157,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -8065,7 +8171,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -8111,7 +8217,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -8125,7 +8231,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -8139,7 +8245,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -8153,7 +8259,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -8167,13 +8273,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -8181,7 +8287,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -8195,7 +8301,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -8209,7 +8315,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -8223,7 +8329,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -8237,7 +8343,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -8281,7 +8387,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -8295,7 +8401,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -8309,7 +8415,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -8323,7 +8429,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -8337,13 +8443,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -8351,7 +8457,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -8365,7 +8471,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -8379,7 +8485,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -8393,7 +8499,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -8407,7 +8513,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -8451,7 +8557,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -8465,7 +8571,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -8479,7 +8585,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -8493,7 +8599,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -8507,13 +8613,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -8521,7 +8627,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -8535,7 +8641,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -8549,7 +8655,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -8563,7 +8669,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -8577,7 +8683,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -8621,7 +8727,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -8635,7 +8741,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -8649,7 +8755,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -8663,7 +8769,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -8677,13 +8783,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -8691,7 +8797,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -8705,7 +8811,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -8719,7 +8825,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -8733,7 +8839,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -8747,7 +8853,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -8791,7 +8897,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -8805,7 +8911,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -8819,7 +8925,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -8833,7 +8939,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -8847,7 +8953,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
@@ -8861,7 +8967,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
@@ -8875,7 +8981,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
@@ -8889,7 +8995,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B8" t="s">
         <v>22</v>
@@ -8903,7 +9009,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -8946,7 +9052,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -8960,7 +9066,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -8974,7 +9080,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -8988,13 +9094,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -9002,7 +9108,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
@@ -9016,7 +9122,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
@@ -9030,7 +9136,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
@@ -9044,7 +9150,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B8" t="s">
         <v>22</v>
@@ -9058,7 +9164,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>

--- a/docs/OVW Sheets/OVWDemo_product_listing.xlsx
+++ b/docs/OVW Sheets/OVWDemo_product_listing.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OVW Migration Dec 10\OVWMigration\docs\OVW Sheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OVW Migration\OVWMigration\docs\OVW Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7755" firstSheet="37" activeTab="47"/>
   </bookViews>
   <sheets>
     <sheet name="de_de" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1672" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1672" uniqueCount="435">
   <si>
     <t>http://www.cisco.com/web/DE/products/telepresence/products.html</t>
   </si>
@@ -1373,6 +1373,9 @@
   </si>
   <si>
     <t>http://www.cisco.com/web/CN/products/products_netsol/storage_networking/products.html</t>
+  </si>
+  <si>
+    <t>product-listing-var6</t>
   </si>
 </sst>
 </file>
@@ -1856,7 +1859,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1980,7 +1983,7 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -1995,7 +1998,7 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -2010,7 +2013,7 @@
         <v>24</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -2039,12 +2042,14 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="67.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -2153,7 +2158,7 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -2167,7 +2172,7 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -2181,7 +2186,7 @@
         <v>24</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -2209,12 +2214,14 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="70" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="67.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -2225,7 +2232,7 @@
         <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D1" t="s">
         <v>12</v>
@@ -2239,7 +2246,7 @@
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -2253,7 +2260,7 @@
         <v>24</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -2274,12 +2281,14 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="70" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -2374,7 +2383,7 @@
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -2388,7 +2397,7 @@
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -2402,7 +2411,7 @@
         <v>24</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -2429,12 +2438,14 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="70.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -2543,7 +2554,7 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -2557,7 +2568,7 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -2571,7 +2582,7 @@
         <v>24</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -2599,12 +2610,14 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="73" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -2713,7 +2726,7 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -2727,7 +2740,7 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -2741,7 +2754,7 @@
         <v>24</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -2769,12 +2782,14 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="70" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -2869,7 +2884,7 @@
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -2883,7 +2898,7 @@
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -2897,7 +2912,7 @@
         <v>24</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -2924,7 +2939,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A7"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2942,7 +2957,7 @@
         <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D1" t="s">
         <v>12</v>
@@ -2956,7 +2971,7 @@
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -2970,7 +2985,7 @@
         <v>24</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -2991,12 +3006,14 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="70" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -3105,7 +3122,7 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -3119,7 +3136,7 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -3133,7 +3150,7 @@
         <v>24</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -3161,7 +3178,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3277,7 +3294,7 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -3291,7 +3308,7 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -3305,7 +3322,7 @@
         <v>24</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -3333,12 +3350,14 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="67.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -3447,7 +3466,7 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -3461,7 +3480,7 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -3475,7 +3494,7 @@
         <v>24</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -3502,8 +3521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3605,7 +3624,7 @@
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -3619,7 +3638,7 @@
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -3633,7 +3652,7 @@
         <v>24</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -3660,12 +3679,14 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="70.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -3774,7 +3795,7 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -3788,7 +3809,7 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -3802,7 +3823,7 @@
         <v>24</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -3830,12 +3851,14 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="67.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -3846,7 +3869,7 @@
         <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D1" t="s">
         <v>12</v>
@@ -3860,7 +3883,7 @@
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -3874,7 +3897,7 @@
         <v>24</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -3895,12 +3918,14 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="66.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -3911,7 +3936,7 @@
         <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D1" t="s">
         <v>12</v>
@@ -3925,7 +3950,7 @@
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -3939,7 +3964,7 @@
         <v>24</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -3960,12 +3985,14 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="67.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -4074,7 +4101,7 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -4088,7 +4115,7 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -4102,7 +4129,7 @@
         <v>24</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -4130,12 +4157,14 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="65.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -4244,7 +4273,7 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -4258,7 +4287,7 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -4272,7 +4301,7 @@
         <v>24</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -4300,12 +4329,14 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="67.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -4316,7 +4347,7 @@
         <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D1" t="s">
         <v>12</v>
@@ -4330,7 +4361,7 @@
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -4344,7 +4375,7 @@
         <v>24</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -4365,7 +4396,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4400,7 +4431,7 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -4415,7 +4446,7 @@
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -4430,7 +4461,7 @@
         <v>24</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -4453,7 +4484,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4562,7 +4593,7 @@
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -4577,7 +4608,7 @@
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -4592,7 +4623,7 @@
         <v>24</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -4620,7 +4651,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4744,7 +4775,7 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -4759,7 +4790,7 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -4774,7 +4805,7 @@
         <v>24</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -4803,7 +4834,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4928,7 +4959,7 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -4943,7 +4974,7 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -4958,7 +4989,7 @@
         <v>24</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -4987,12 +5018,14 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="70.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -5101,7 +5134,7 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -5115,7 +5148,7 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -5129,7 +5162,7 @@
         <v>24</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -5157,12 +5190,14 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="67.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -5271,7 +5306,7 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -5285,7 +5320,7 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -5299,7 +5334,7 @@
         <v>24</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -5327,12 +5362,14 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="76.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -5441,7 +5478,7 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -5455,7 +5492,7 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -5469,7 +5506,7 @@
         <v>24</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -5497,7 +5534,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5613,7 +5650,7 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -5627,7 +5664,7 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -5641,7 +5678,7 @@
         <v>24</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -5669,7 +5706,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5786,7 +5823,7 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -5800,7 +5837,7 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -5814,7 +5851,7 @@
         <v>24</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -5842,7 +5879,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5959,7 +5996,7 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -5973,7 +6010,7 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -5987,7 +6024,7 @@
         <v>24</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -6015,7 +6052,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6132,7 +6169,7 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -6146,7 +6183,7 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -6160,7 +6197,7 @@
         <v>24</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -6188,7 +6225,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6207,7 +6244,7 @@
         <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D1" t="s">
         <v>12</v>
@@ -6221,7 +6258,7 @@
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -6235,7 +6272,7 @@
         <v>24</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -6256,7 +6293,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6373,7 +6410,7 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -6387,7 +6424,7 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -6401,7 +6438,7 @@
         <v>24</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -6429,7 +6466,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6546,7 +6583,7 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -6560,7 +6597,7 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -6574,7 +6611,7 @@
         <v>24</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -6602,7 +6639,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6718,7 +6755,7 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -6732,7 +6769,7 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -6746,7 +6783,7 @@
         <v>24</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -6774,12 +6811,14 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="75.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -6888,7 +6927,7 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -6902,7 +6941,7 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -6916,7 +6955,7 @@
         <v>24</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -6944,7 +6983,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7061,7 +7100,7 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -7075,7 +7114,7 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -7089,7 +7128,7 @@
         <v>24</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -7117,7 +7156,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7234,7 +7273,7 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -7248,7 +7287,7 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -7262,7 +7301,7 @@
         <v>24</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -7290,7 +7329,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7393,7 +7432,7 @@
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -7407,7 +7446,7 @@
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -7421,7 +7460,7 @@
         <v>24</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -7448,7 +7487,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7565,7 +7604,7 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -7579,7 +7618,7 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -7593,7 +7632,7 @@
         <v>24</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -7621,7 +7660,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7640,7 +7679,7 @@
         <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D1" t="s">
         <v>12</v>
@@ -7654,7 +7693,7 @@
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -7668,7 +7707,7 @@
         <v>24</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -7689,7 +7728,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7805,7 +7844,7 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -7819,7 +7858,7 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -7833,7 +7872,7 @@
         <v>24</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -7861,7 +7900,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7977,7 +8016,7 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -7991,7 +8030,7 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -8005,7 +8044,7 @@
         <v>24</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -8033,7 +8072,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8149,7 +8188,7 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -8163,7 +8202,7 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -8177,7 +8216,7 @@
         <v>24</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -8204,8 +8243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8321,7 +8360,7 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -8335,7 +8374,7 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -8349,7 +8388,7 @@
         <v>24</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -8377,12 +8416,14 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="75.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="68.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -8491,7 +8532,7 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -8505,7 +8546,7 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -8519,7 +8560,7 @@
         <v>24</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -8547,12 +8588,14 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="68.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -8661,7 +8704,7 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -8675,7 +8718,7 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -8689,7 +8732,7 @@
         <v>24</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -8717,12 +8760,14 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="81" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="70.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -8831,7 +8876,7 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -8845,7 +8890,7 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -8859,7 +8904,7 @@
         <v>24</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -8887,12 +8932,14 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="81" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="64.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -8987,7 +9034,7 @@
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -9001,7 +9048,7 @@
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -9015,7 +9062,7 @@
         <v>24</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -9042,12 +9089,14 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="81" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="67.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -9142,7 +9191,7 @@
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -9156,7 +9205,7 @@
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -9170,7 +9219,7 @@
         <v>24</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>

--- a/docs/OVW Sheets/OVWDemo_product_listing.xlsx
+++ b/docs/OVW Sheets/OVWDemo_product_listing.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OVW Migration\OVWMigration\docs\OVW Sheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OVW Migration dec 14\OVWMigration\docs\OVW Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7755" firstSheet="37" activeTab="47"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7755" firstSheet="6" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="de_de" sheetId="1" r:id="rId1"/>
@@ -286,9 +286,6 @@
     <t>http://www.cisco.com/web/ME/ar/solutions/collaboration/products.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/ME/ar/solutions/collaboration/index.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/ME/ar/solutions/borderless/prodportfolio.html</t>
   </si>
   <si>
@@ -1376,6 +1373,9 @@
   </si>
   <si>
     <t>product-listing-var6</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/ME/ar/solutions/datacenter/products.html</t>
   </si>
 </sst>
 </file>
@@ -1538,7 +1538,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -1547,6 +1547,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="30">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1938,7 +1939,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -1983,7 +1984,7 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -1998,7 +1999,7 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -2013,7 +2014,7 @@
         <v>24</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -2054,7 +2055,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2068,7 +2069,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -2082,7 +2083,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -2096,7 +2097,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -2110,13 +2111,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -2124,7 +2125,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -2138,7 +2139,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -2152,13 +2153,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -2166,13 +2167,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -2180,13 +2181,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -2226,13 +2227,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B1" t="s">
         <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D1" t="s">
         <v>12</v>
@@ -2240,13 +2241,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -2254,13 +2255,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -2293,7 +2294,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2307,7 +2308,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -2321,7 +2322,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -2335,7 +2336,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -2349,7 +2350,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
@@ -2363,7 +2364,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
@@ -2377,13 +2378,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -2391,13 +2392,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B8" t="s">
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -2405,13 +2406,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -2450,7 +2451,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2464,7 +2465,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -2478,7 +2479,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -2492,7 +2493,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -2506,13 +2507,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -2520,7 +2521,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -2534,7 +2535,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -2548,13 +2549,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -2562,13 +2563,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -2576,13 +2577,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -2622,7 +2623,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2636,7 +2637,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -2650,7 +2651,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -2664,7 +2665,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -2678,13 +2679,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -2692,7 +2693,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -2706,7 +2707,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -2720,13 +2721,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -2734,13 +2735,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -2748,13 +2749,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -2794,7 +2795,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2808,7 +2809,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -2822,7 +2823,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -2836,13 +2837,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -2850,7 +2851,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
@@ -2864,7 +2865,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
@@ -2878,13 +2879,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -2892,13 +2893,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B8" t="s">
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -2906,13 +2907,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -2951,13 +2952,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B1" t="s">
         <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D1" t="s">
         <v>12</v>
@@ -2965,13 +2966,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -2979,13 +2980,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -3018,7 +3019,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -3032,7 +3033,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -3046,7 +3047,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -3060,7 +3061,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -3074,13 +3075,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -3088,7 +3089,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -3102,7 +3103,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -3116,13 +3117,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -3130,13 +3131,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -3144,13 +3145,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -3190,7 +3191,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -3204,7 +3205,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -3218,7 +3219,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -3232,7 +3233,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -3246,13 +3247,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -3260,7 +3261,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -3274,7 +3275,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -3288,13 +3289,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -3302,13 +3303,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -3316,13 +3317,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -3362,7 +3363,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -3376,7 +3377,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -3390,7 +3391,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -3404,7 +3405,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -3418,13 +3419,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -3432,7 +3433,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -3446,7 +3447,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -3460,13 +3461,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -3474,13 +3475,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -3488,13 +3489,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -3604,7 +3605,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
@@ -3624,7 +3625,7 @@
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -3638,7 +3639,7 @@
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -3652,7 +3653,7 @@
         <v>24</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -3691,7 +3692,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -3705,7 +3706,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -3719,7 +3720,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -3733,7 +3734,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -3747,13 +3748,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -3761,7 +3762,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -3775,7 +3776,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -3789,13 +3790,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -3803,13 +3804,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -3817,13 +3818,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -3863,13 +3864,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B1" t="s">
         <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D1" t="s">
         <v>12</v>
@@ -3877,13 +3878,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -3891,13 +3892,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -3930,13 +3931,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B1" t="s">
         <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D1" t="s">
         <v>12</v>
@@ -3944,13 +3945,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -3958,13 +3959,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -3997,7 +3998,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -4011,7 +4012,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -4025,7 +4026,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -4039,7 +4040,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -4053,13 +4054,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -4067,7 +4068,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -4081,7 +4082,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -4095,13 +4096,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -4109,13 +4110,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -4123,13 +4124,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -4169,7 +4170,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -4183,7 +4184,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -4197,7 +4198,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -4211,7 +4212,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -4225,13 +4226,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -4239,7 +4240,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -4253,7 +4254,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -4267,13 +4268,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -4281,13 +4282,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -4295,13 +4296,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -4341,13 +4342,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B1" t="s">
         <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D1" t="s">
         <v>12</v>
@@ -4355,13 +4356,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -4369,13 +4370,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -4410,13 +4411,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B1" t="s">
         <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D1" t="s">
         <v>12</v>
@@ -4425,13 +4426,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -4440,13 +4441,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -4455,13 +4456,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -4497,7 +4498,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -4512,7 +4513,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -4527,7 +4528,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -4542,7 +4543,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -4557,7 +4558,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
@@ -4572,7 +4573,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
@@ -4587,13 +4588,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -4602,13 +4603,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B8" t="s">
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -4617,13 +4618,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -4664,7 +4665,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -4679,7 +4680,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -4694,7 +4695,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -4709,7 +4710,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -4724,13 +4725,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -4739,7 +4740,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -4754,7 +4755,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -4769,13 +4770,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -4784,13 +4785,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -4799,13 +4800,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -4848,7 +4849,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -4863,7 +4864,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -4878,7 +4879,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -4893,7 +4894,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -4908,13 +4909,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -4923,7 +4924,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -4938,7 +4939,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -4953,13 +4954,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -4968,13 +4969,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -4983,13 +4984,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -5092,7 +5093,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -5134,7 +5135,7 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -5148,7 +5149,7 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -5162,7 +5163,7 @@
         <v>24</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -5202,7 +5203,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -5216,7 +5217,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -5230,7 +5231,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -5244,7 +5245,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -5258,13 +5259,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -5272,7 +5273,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -5286,7 +5287,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -5300,13 +5301,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -5314,13 +5315,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -5328,13 +5329,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -5374,7 +5375,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -5388,7 +5389,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -5402,7 +5403,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -5416,7 +5417,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -5430,13 +5431,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -5444,7 +5445,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -5458,7 +5459,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -5472,13 +5473,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -5486,13 +5487,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -5500,13 +5501,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -5546,7 +5547,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -5560,7 +5561,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -5574,7 +5575,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -5588,7 +5589,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -5602,13 +5603,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -5616,7 +5617,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -5630,7 +5631,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -5644,13 +5645,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -5658,13 +5659,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -5672,13 +5673,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -5719,7 +5720,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -5733,7 +5734,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -5747,7 +5748,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -5761,7 +5762,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -5775,13 +5776,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -5789,7 +5790,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -5803,7 +5804,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -5817,13 +5818,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -5831,13 +5832,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -5845,13 +5846,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -5892,7 +5893,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -5906,7 +5907,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -5920,7 +5921,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -5934,7 +5935,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -5948,13 +5949,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -5962,7 +5963,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -5976,7 +5977,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -5990,13 +5991,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -6004,13 +6005,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -6018,13 +6019,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -6065,7 +6066,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -6079,7 +6080,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -6093,7 +6094,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -6107,7 +6108,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -6121,13 +6122,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -6135,7 +6136,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -6149,7 +6150,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -6163,13 +6164,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -6177,13 +6178,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -6191,13 +6192,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -6238,13 +6239,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B1" t="s">
         <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D1" t="s">
         <v>12</v>
@@ -6252,13 +6253,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -6266,13 +6267,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -6306,7 +6307,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -6320,7 +6321,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -6334,7 +6335,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -6348,7 +6349,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -6362,13 +6363,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -6376,7 +6377,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -6390,7 +6391,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -6404,13 +6405,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -6418,13 +6419,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -6432,13 +6433,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -6479,7 +6480,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -6493,7 +6494,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -6507,7 +6508,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -6521,7 +6522,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -6535,13 +6536,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -6549,7 +6550,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -6563,7 +6564,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -6577,13 +6578,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -6591,13 +6592,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -6605,13 +6606,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -6651,7 +6652,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -6665,7 +6666,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -6679,7 +6680,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -6693,7 +6694,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -6707,13 +6708,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -6721,7 +6722,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -6735,7 +6736,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -6749,13 +6750,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -6763,13 +6764,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -6777,13 +6778,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -6823,7 +6824,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -6837,7 +6838,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -6851,7 +6852,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -6865,7 +6866,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -6879,13 +6880,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -6893,7 +6894,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -6907,7 +6908,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -6921,13 +6922,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -6935,13 +6936,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -6949,13 +6950,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -6996,7 +6997,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -7010,7 +7011,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -7024,7 +7025,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -7038,7 +7039,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -7052,13 +7053,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -7066,7 +7067,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -7080,7 +7081,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -7094,13 +7095,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -7108,13 +7109,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -7122,13 +7123,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -7169,7 +7170,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -7183,7 +7184,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -7197,7 +7198,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -7211,7 +7212,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -7225,13 +7226,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -7239,7 +7240,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -7253,7 +7254,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -7267,13 +7268,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -7281,13 +7282,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -7295,13 +7296,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -7342,7 +7343,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -7356,7 +7357,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -7370,7 +7371,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -7384,7 +7385,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -7398,7 +7399,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
@@ -7412,7 +7413,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
@@ -7426,13 +7427,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -7440,13 +7441,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B8" t="s">
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -7454,13 +7455,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -7500,7 +7501,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -7514,7 +7515,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -7528,7 +7529,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -7542,7 +7543,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -7556,13 +7557,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -7570,7 +7571,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -7584,7 +7585,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -7598,13 +7599,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -7612,13 +7613,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -7626,13 +7627,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -7673,13 +7674,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B1" t="s">
         <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D1" t="s">
         <v>12</v>
@@ -7687,13 +7688,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -7701,13 +7702,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -7740,7 +7741,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -7754,7 +7755,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -7768,7 +7769,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -7782,7 +7783,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -7796,13 +7797,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -7810,7 +7811,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -7824,7 +7825,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -7838,13 +7839,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -7852,13 +7853,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -7866,13 +7867,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -7912,7 +7913,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -7926,7 +7927,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -7940,7 +7941,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -7954,7 +7955,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -7968,13 +7969,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -7982,7 +7983,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -7996,7 +7997,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -8010,13 +8011,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -8024,13 +8025,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -8038,13 +8039,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -8084,7 +8085,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -8098,7 +8099,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -8112,7 +8113,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -8126,7 +8127,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -8140,13 +8141,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -8154,7 +8155,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -8168,7 +8169,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -8182,13 +8183,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -8196,13 +8197,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -8210,13 +8211,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -8243,7 +8244,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -8256,7 +8257,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -8270,7 +8271,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -8284,7 +8285,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -8298,7 +8299,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -8312,13 +8313,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -8326,7 +8327,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -8340,7 +8341,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -8354,13 +8355,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -8368,13 +8369,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -8382,13 +8383,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -8490,7 +8491,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -8532,7 +8533,7 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -8546,7 +8547,7 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -8560,7 +8561,7 @@
         <v>24</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -8662,7 +8663,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -8704,7 +8705,7 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -8718,7 +8719,7 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -8732,7 +8733,7 @@
         <v>24</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -8759,8 +8760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8834,7 +8835,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -8876,21 +8877,21 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
+        <v>433</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>434</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -8898,13 +8899,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -8913,15 +8914,15 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A10" r:id="rId1"/>
-    <hyperlink ref="A9" r:id="rId2"/>
-    <hyperlink ref="A8" r:id="rId3"/>
-    <hyperlink ref="A7" r:id="rId4" display="http://www.cisco.com/web/ME/ar/products/storage/index.html"/>
-    <hyperlink ref="A6" r:id="rId5"/>
-    <hyperlink ref="A5" r:id="rId6"/>
-    <hyperlink ref="A4" r:id="rId7"/>
-    <hyperlink ref="A3" r:id="rId8"/>
-    <hyperlink ref="A2" r:id="rId9"/>
-    <hyperlink ref="A1" r:id="rId10"/>
+    <hyperlink ref="A8" r:id="rId2"/>
+    <hyperlink ref="A7" r:id="rId3" display="http://www.cisco.com/web/ME/ar/products/storage/index.html"/>
+    <hyperlink ref="A6" r:id="rId4"/>
+    <hyperlink ref="A5" r:id="rId5"/>
+    <hyperlink ref="A4" r:id="rId6"/>
+    <hyperlink ref="A3" r:id="rId7"/>
+    <hyperlink ref="A2" r:id="rId8"/>
+    <hyperlink ref="A1" r:id="rId9"/>
+    <hyperlink ref="A9" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8932,7 +8933,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8944,7 +8945,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -8958,7 +8959,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -8972,7 +8973,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -8986,7 +8987,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -9000,7 +9001,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
@@ -9014,7 +9015,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
@@ -9028,13 +9029,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -9042,13 +9043,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B8" t="s">
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -9056,13 +9057,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -9101,7 +9102,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -9115,7 +9116,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -9129,7 +9130,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -9143,13 +9144,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -9157,7 +9158,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
@@ -9171,7 +9172,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
@@ -9185,13 +9186,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -9199,13 +9200,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B8" t="s">
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -9213,13 +9214,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>

--- a/docs/OVW Sheets/OVWDemo_product_listing.xlsx
+++ b/docs/OVW Sheets/OVWDemo_product_listing.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OVW Migration dec 14\OVWMigration\docs\OVW Sheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OVW Migration Dec 28\OVWMigration\docs\OVW Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7755" firstSheet="6" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7755" firstSheet="37" activeTab="47"/>
   </bookViews>
   <sheets>
     <sheet name="de_de" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1672" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="351">
   <si>
     <t>http://www.cisco.com/web/DE/products/telepresence/products.html</t>
   </si>
@@ -112,24 +112,6 @@
     <t>solutions</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/DE/products/unified_computing/products.html</t>
-  </si>
-  <si>
-    <t>servers-unified-computing</t>
-  </si>
-  <si>
-    <t>product-listing-var4</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/DE/products/storage/products.html</t>
-  </si>
-  <si>
-    <t>storage-networking</t>
-  </si>
-  <si>
-    <t>product-listing-var5</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/DE/solutions/collaboration/products.html</t>
   </si>
   <si>
@@ -160,9 +142,6 @@
     <t>http://www.cisco.com/web/CN/products/products_netsol/voices/products.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/CN/products/products_netsol/ucs/products.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/CN/solutions/borderless_networks/prodportfolio.html</t>
   </si>
   <si>
@@ -187,12 +166,6 @@
     <t>http://www.cisco.com/cisco/web/UK/solutions/sp/product-listing.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/cisco/web/UK/products/unified_computing/products.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/cisco/web/UK/products/storage/products.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/cisco/web/UK/solutions/collaboration/products.html</t>
   </si>
   <si>
@@ -217,12 +190,6 @@
     <t>http://www.cisco.com/web/LA/soluciones/sp/product-listing.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/LA/productos/uc/products.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/LA/productos/storage/products.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/LA/soluciones/collaboration/products.html</t>
   </si>
   <si>
@@ -247,12 +214,6 @@
     <t>http://www.cisco.com/web/BR/solucoes/sp/product-listing.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/BR/produtos/uc/products.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/BR/produtos/storage/products.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/BR/solucoes/collaboration/products.html</t>
   </si>
   <si>
@@ -277,12 +238,6 @@
     <t>http://www.cisco.com/web/ME/ar/solutions/sp/product-listing.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/ME/ar/products/uc/products.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/ME/ar/products/storage/products.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/ME/ar/solutions/collaboration/products.html</t>
   </si>
   <si>
@@ -301,12 +256,6 @@
     <t>http://www.cisco.com/web/JP/product/hs/iptel/products.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/JP/product/hs/ucs/products.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/JP/product/hs/storage/products.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/JP/solution/collaboration/products.html</t>
   </si>
   <si>
@@ -328,12 +277,6 @@
     <t>http://www.cisco.com/web/FR/solutions/sp/product-listing.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/FR/products/uc/products.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/FR/products/storage/products.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/FR/solutions/collaboration/products.html</t>
   </si>
   <si>
@@ -358,12 +301,6 @@
     <t>http://www.cisco.com/web/BE/nl/solutions/sp/product-listing.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/BE/nl/products/uc/products.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/BE/nl/products/storage/products.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/BE/nl/solutions/collaboration/products.html</t>
   </si>
   <si>
@@ -394,12 +331,6 @@
     <t>http://www.cisco.com/web/CA/products/voice/products.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/CA/products/unified_computing/products.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/CA/products/storage/products.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/CA/solutions/collaboration/products.html</t>
   </si>
   <si>
@@ -424,12 +355,6 @@
     <t>http://www.cisco.com/web/CA/solutions/sp/product-listing_fr.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/CA/products/unified_computing/products_fr.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/CA/products/storage/products_fr.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/CA/solutions/collaboration/products_fr.html</t>
   </si>
   <si>
@@ -454,12 +379,6 @@
     <t>http://www.cisco.com/web/CH/de/solution/sp/product-listing.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/CH/de/products/uc/products.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/CH/de/products/storage/products.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/CH/de/solution/collaboration/products.html</t>
   </si>
   <si>
@@ -481,12 +400,6 @@
     <t>http://www.cisco.com/web/CH/fr/solutions/sp/product-listing.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/CH/fr/products/uc/products.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/CH/fr/products/storage/products.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/CH/fr/solutions/collaboration/products.html</t>
   </si>
   <si>
@@ -520,12 +433,6 @@
     <t>http://www.cisco.com/web/DK/solutions/sp/product-listing.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/DK/products/uc/products.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/DK/products/storage/products.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/DK/solutions/collaboration/products.html</t>
   </si>
   <si>
@@ -550,12 +457,6 @@
     <t>http://www.cisco.com/web/EA/solutions/sp/product-listing.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/EA/products/uc/products.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/EA/products/storage/products.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/EA/solutions/collaboration/products.html</t>
   </si>
   <si>
@@ -580,12 +481,6 @@
     <t>http://www.cisco.com/web/EA/solutions/FR/sp/product-listing.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/EA/products/FR/uc/products.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/EA/products/FR/storage/products.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/EA/solutions/FR/collaboration/products.html</t>
   </si>
   <si>
@@ -610,12 +505,6 @@
     <t>http://www.cisco.com/web/ES/solutions/sp/product-listing.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/ES/products/uc/products.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/ES/products/storage/products.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/ES/solutions/collaboration/products.html</t>
   </si>
   <si>
@@ -658,12 +547,6 @@
     <t>http://www.cisco.com/web/HK/solutions/sp/product-listing.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/HK/products/uc/products.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/HK/products/storage/products.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/HK/solutions/collaboration/products.html</t>
   </si>
   <si>
@@ -688,12 +571,6 @@
     <t>http://www.cisco.com/web/HK/solution_tc/sp/product-listing.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/HK/tc/products/uc/products.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/HK/tc/products/storage/products.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/HK/solution_tc/collaboration/products.html</t>
   </si>
   <si>
@@ -727,12 +604,6 @@
     <t>http://www.cisco.com/web/KR/networking/service_provider/product-listing.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/KR/products/pc/unified_computing/products.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/KR/products/pc/snp/products.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/KR/networking/collaboration/products.html</t>
   </si>
   <si>
@@ -751,12 +622,6 @@
     <t>http://www.cisco.com/web/ME/solutions/collaboration/products.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/ME/products/storage/products.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/ME/products/uc/products.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/ME/solutions/sp/product-listing.html</t>
   </si>
   <si>
@@ -796,12 +661,6 @@
     <t>http://www.cisco.com/web/IL/products/voice/products.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/IL/products/uc/products.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/IL/products/storage/products.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/IL/solutions/collaboration/products.html</t>
   </si>
   <si>
@@ -826,12 +685,6 @@
     <t>http://www.cisco.com/web/IN/solutions/sp/product-listing.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/IN/products/unified_computing/products.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/IN/products/storage/products.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/IN/solutions/collaboration/products.html</t>
   </si>
   <si>
@@ -856,12 +709,6 @@
     <t>http://www.cisco.com/web/IT/solutions/sp/product-listing.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/IT/products/uc/products.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/IT/products/storage/products.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/IT/solutions/collaboration/products.html</t>
   </si>
   <si>
@@ -886,12 +733,6 @@
     <t>http://www.cisco.com/web/NL/solutions/sp/product-listing.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/NL/producten/uc/products.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/NL/producten/storage/products.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/NL/solutions/collaboration/products.html</t>
   </si>
   <si>
@@ -916,12 +757,6 @@
     <t>http://www.cisco.com/web/NO/solutions/sp/product-listing.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/NO/products/uc/products.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/NO/products/storage/products.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/NO/solutions/collaboration/products.html</t>
   </si>
   <si>
@@ -946,12 +781,6 @@
     <t>http://www.cisco.com/web/PL/solutions/sp/product-listing.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/PL/products/uc/products.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/PL/products/storage/products.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/PL/solutions/collaboration/products.html</t>
   </si>
   <si>
@@ -976,12 +805,6 @@
     <t>http://www.cisco.com/web/PT/solutions/sp/product-listing.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/PT/products/uc/products.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/PT/products/storage/products.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/PT/solutions/collaboration/products.html</t>
   </si>
   <si>
@@ -1015,12 +838,6 @@
     <t>http://www.cisco.com/web/SE/solutions/sp/product-listing.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/SE/products/uc/products.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/SE/products/storage/products.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/SE/solutions/collaboration/products.html</t>
   </si>
   <si>
@@ -1045,12 +862,6 @@
     <t>http://www.cisco.com/web/SG/solutions/sp/product-listing.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/SG/products/uc/products.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/SG/products/storage/products.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/SG/solutions/collaboration/products.html</t>
   </si>
   <si>
@@ -1075,12 +886,6 @@
     <t>http://www.cisco.com/web/TH/solutions/sp/product-listing.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/TH/products/uc/products.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/TH/products/storage/products.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/TH/solutions/collaboration/products.html</t>
   </si>
   <si>
@@ -1105,12 +910,6 @@
     <t>http://www.cisco.com/web/TR/solutions/sp/product-listing.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/TR/products/uc/products.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/TR/products/storage/products.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/TR/solutions/collaboration/products.html</t>
   </si>
   <si>
@@ -1135,12 +934,6 @@
     <t>http://www.cisco.com/web/TW/solutions/sp/product-listing.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/TW/products/uc/products.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/TW/products/storage/products.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/TW/solutions/collaboration/products.html</t>
   </si>
   <si>
@@ -1162,12 +955,6 @@
     <t>http://www.cisco.com/web/UA/products/voice/products.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/UA/products/uc/products.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/UA/products/storage/products.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/UA/solutions/collaboration/products.html</t>
   </si>
   <si>
@@ -1192,12 +979,6 @@
     <t>http://www.cisco.com/web/ZA/solutions/sp/product-listing.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/ZA/products/uc/products.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/ZA/products/storage/products.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/ZA/solutions/collaboration/products.html</t>
   </si>
   <si>
@@ -1231,12 +1012,6 @@
     <t>http://www.cisco.com/web/ANZ/netsol/sp/product-listing.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/ANZ/products/unified_computing/products.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/ANZ/products/storage/products.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/ANZ/netsol/collaboration/products.html</t>
   </si>
   <si>
@@ -1261,12 +1036,6 @@
     <t>http://www.cisco.com/web/AT/solutions/sp/product-listing.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/AT/products/uc/products.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/AT/products/storage/products.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/AT/solutions/collaboration/products.html</t>
   </si>
   <si>
@@ -1291,12 +1060,6 @@
     <t>http://www.cisco.com/web/BE/solutions/sp/product-listing.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/BE/products/uc/products.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/BE/products/storage/products.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/BE/solutions/collaboration/products.html</t>
   </si>
   <si>
@@ -1321,12 +1084,6 @@
     <t>http://www.cisco.com/web/BE/fr/solutions/sp/product-listing.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/BE/fr/products/uc/products.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/BE/fr/products/storage/products.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/BE/fr/solutions/collaboration/products.html</t>
   </si>
   <si>
@@ -1354,12 +1111,6 @@
     <t>http://www.cisco.com/web/RU/solutions/sp/product-listing.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/RU/products/uc/products.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/RU/products/storage/products.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/RU/solutions/collaboration/products.html</t>
   </si>
   <si>
@@ -1367,9 +1118,6 @@
   </si>
   <si>
     <t>http://www.cisco.com/web/RU/solutions/borderless/prodportfolio.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/CN/products/products_netsol/storage_networking/products.html</t>
   </si>
   <si>
     <t>product-listing-var6</t>
@@ -1538,7 +1286,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -1546,7 +1294,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="30">
@@ -1860,7 +1607,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1939,7 +1686,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>421</v>
+        <v>340</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -1947,44 +1694,44 @@
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
       <c r="C6" t="s">
+        <v>349</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>349</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B8" t="s">
         <v>18</v>
       </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>433</v>
+      <c r="C8" s="4" t="s">
+        <v>349</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -1992,33 +1739,9 @@
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>433</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
       <c r="E10" s="5"/>
     </row>
   </sheetData>
@@ -2031,8 +1754,6 @@
     <hyperlink ref="A6" r:id="rId6"/>
     <hyperlink ref="A7" r:id="rId7"/>
     <hyperlink ref="A8" r:id="rId8"/>
-    <hyperlink ref="A9" r:id="rId9"/>
-    <hyperlink ref="A10" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2040,10 +1761,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A6" sqref="A6:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2055,7 +1776,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2069,7 +1790,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -2083,7 +1804,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -2097,7 +1818,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -2111,13 +1832,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>421</v>
+        <v>340</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -2125,71 +1846,43 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>349</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>349</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>433</v>
+        <v>18</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>349</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>433</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="D10" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2203,8 +1896,6 @@
     <hyperlink ref="A6" r:id="rId6"/>
     <hyperlink ref="A7" r:id="rId7"/>
     <hyperlink ref="A8" r:id="rId8"/>
-    <hyperlink ref="A9" r:id="rId9"/>
-    <hyperlink ref="A10" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2227,13 +1918,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>433</v>
+        <v>349</v>
       </c>
       <c r="D1" t="s">
         <v>12</v>
@@ -2241,13 +1932,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>433</v>
+        <v>349</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -2255,13 +1946,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>433</v>
+        <v>349</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -2279,10 +1970,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A5" sqref="A5:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2294,7 +1985,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2308,7 +1999,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -2322,7 +2013,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -2336,7 +2027,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -2350,71 +2041,43 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>349</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>349</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>433</v>
+        <v>18</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>349</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>433</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="D9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2427,8 +2090,6 @@
     <hyperlink ref="A5" r:id="rId5"/>
     <hyperlink ref="A6" r:id="rId6"/>
     <hyperlink ref="A7" r:id="rId7"/>
-    <hyperlink ref="A8" r:id="rId8"/>
-    <hyperlink ref="A9" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2436,10 +2097,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A6" sqref="A6:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2451,7 +2112,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2465,7 +2126,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -2479,7 +2140,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -2493,7 +2154,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -2507,85 +2168,57 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>421</v>
+        <v>340</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>117</v>
+      <c r="A6" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>349</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>118</v>
+      <c r="A7" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>349</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>433</v>
+        <v>18</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>349</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>433</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="D10" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2599,8 +2232,6 @@
     <hyperlink ref="A6" r:id="rId6"/>
     <hyperlink ref="A7" r:id="rId7"/>
     <hyperlink ref="A8" r:id="rId8"/>
-    <hyperlink ref="A9" r:id="rId9"/>
-    <hyperlink ref="A10" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2608,10 +2239,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A6" sqref="A6:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2623,7 +2254,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2637,7 +2268,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -2651,7 +2282,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -2665,7 +2296,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -2679,13 +2310,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>421</v>
+        <v>340</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -2693,71 +2324,43 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>349</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>349</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>433</v>
+        <v>18</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>349</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>433</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="D10" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2771,8 +2374,6 @@
     <hyperlink ref="A6" r:id="rId6"/>
     <hyperlink ref="A7" r:id="rId7"/>
     <hyperlink ref="A8" r:id="rId8"/>
-    <hyperlink ref="A9" r:id="rId9"/>
-    <hyperlink ref="A10" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2780,10 +2381,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A5" sqref="A5:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2795,7 +2396,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2809,7 +2410,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -2823,7 +2424,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -2837,13 +2438,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>421</v>
+        <v>340</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -2851,71 +2452,43 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>349</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>349</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>433</v>
+        <v>18</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>349</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>433</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="D9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2928,8 +2501,6 @@
     <hyperlink ref="A5" r:id="rId5"/>
     <hyperlink ref="A6" r:id="rId6"/>
     <hyperlink ref="A7" r:id="rId7"/>
-    <hyperlink ref="A8" r:id="rId8"/>
-    <hyperlink ref="A9" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2952,13 +2523,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>433</v>
+        <v>349</v>
       </c>
       <c r="D1" t="s">
         <v>12</v>
@@ -2966,13 +2537,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>433</v>
+        <v>349</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -2980,13 +2551,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>433</v>
+        <v>349</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -3004,10 +2575,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A6" sqref="A6:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3019,7 +2590,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -3033,7 +2604,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -3047,7 +2618,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -3061,7 +2632,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -3075,13 +2646,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>421</v>
+        <v>340</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -3089,71 +2660,43 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>349</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>349</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>433</v>
+        <v>18</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>349</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>433</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="D10" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3167,8 +2710,6 @@
     <hyperlink ref="A6" r:id="rId6"/>
     <hyperlink ref="A7" r:id="rId7"/>
     <hyperlink ref="A8" r:id="rId8"/>
-    <hyperlink ref="A9" r:id="rId9"/>
-    <hyperlink ref="A10" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3176,10 +2717,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A6" sqref="A6:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3191,7 +2732,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>154</v>
+        <v>123</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -3205,7 +2746,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -3219,7 +2760,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -3233,7 +2774,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>157</v>
+        <v>126</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -3247,13 +2788,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>158</v>
+        <v>127</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>421</v>
+        <v>340</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -3261,71 +2802,43 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>159</v>
+        <v>128</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>349</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>349</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>161</v>
+        <v>130</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>433</v>
+        <v>18</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>349</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>433</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="D10" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3339,8 +2852,6 @@
     <hyperlink ref="A6" r:id="rId6"/>
     <hyperlink ref="A7" r:id="rId7"/>
     <hyperlink ref="A8" r:id="rId8"/>
-    <hyperlink ref="A9" r:id="rId9"/>
-    <hyperlink ref="A10" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3348,10 +2859,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A6" sqref="A6:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3363,7 +2874,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>164</v>
+        <v>131</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -3377,7 +2888,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>165</v>
+        <v>132</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -3391,7 +2902,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>166</v>
+        <v>133</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -3405,7 +2916,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>167</v>
+        <v>134</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -3419,13 +2930,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>168</v>
+        <v>135</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>421</v>
+        <v>340</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -3433,71 +2944,43 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>169</v>
+        <v>136</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>349</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>349</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>171</v>
+        <v>138</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>433</v>
+        <v>18</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>349</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>433</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="D10" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3511,8 +2994,6 @@
     <hyperlink ref="A6" r:id="rId6"/>
     <hyperlink ref="A7" r:id="rId7"/>
     <hyperlink ref="A8" r:id="rId8"/>
-    <hyperlink ref="A9" r:id="rId9"/>
-    <hyperlink ref="A10" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3520,10 +3001,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A5" sqref="A5:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3535,7 +3016,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -3549,7 +3030,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -3563,7 +3044,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -3577,7 +3058,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -3591,71 +3072,43 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>349</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>432</v>
+      <c r="A6" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
+        <v>349</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>433</v>
+      <c r="C7" s="4" t="s">
+        <v>349</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>433</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="D9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3665,11 +3118,9 @@
     <hyperlink ref="A2" r:id="rId2"/>
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="A4" r:id="rId4"/>
-    <hyperlink ref="A5" r:id="rId5"/>
-    <hyperlink ref="A9" r:id="rId6"/>
-    <hyperlink ref="A7" r:id="rId7"/>
-    <hyperlink ref="A8" r:id="rId8"/>
-    <hyperlink ref="A6" r:id="rId9"/>
+    <hyperlink ref="A7" r:id="rId5"/>
+    <hyperlink ref="A5" r:id="rId6"/>
+    <hyperlink ref="A6" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3677,10 +3128,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A6" sqref="A6:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3692,7 +3143,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>174</v>
+        <v>139</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -3706,7 +3157,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -3720,7 +3171,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>176</v>
+        <v>141</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -3734,7 +3185,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>177</v>
+        <v>142</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -3748,13 +3199,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>178</v>
+        <v>143</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>421</v>
+        <v>340</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -3762,71 +3213,43 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>179</v>
+        <v>144</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>349</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>349</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>181</v>
+        <v>146</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>433</v>
+        <v>18</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>349</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>433</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="D10" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3840,8 +3263,6 @@
     <hyperlink ref="A6" r:id="rId6"/>
     <hyperlink ref="A7" r:id="rId7"/>
     <hyperlink ref="A8" r:id="rId8"/>
-    <hyperlink ref="A9" r:id="rId9"/>
-    <hyperlink ref="A10" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3864,13 +3285,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>184</v>
+        <v>147</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>433</v>
+        <v>349</v>
       </c>
       <c r="D1" t="s">
         <v>12</v>
@@ -3878,13 +3299,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>185</v>
+        <v>148</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>433</v>
+        <v>349</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -3892,13 +3313,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>186</v>
+        <v>149</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>433</v>
+        <v>349</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -3931,13 +3352,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>433</v>
+        <v>349</v>
       </c>
       <c r="D1" t="s">
         <v>12</v>
@@ -3945,13 +3366,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>188</v>
+        <v>151</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>433</v>
+        <v>349</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -3959,13 +3380,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>189</v>
+        <v>152</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>433</v>
+        <v>349</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -3983,10 +3404,10 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3998,7 +3419,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>190</v>
+        <v>153</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -4012,7 +3433,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>191</v>
+        <v>154</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -4026,7 +3447,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>192</v>
+        <v>155</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -4040,7 +3461,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>193</v>
+        <v>156</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -4054,13 +3475,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>421</v>
+        <v>340</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -4068,71 +3489,43 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>195</v>
+        <v>158</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>349</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>196</v>
+      <c r="A7" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
+        <v>349</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B8" t="s">
         <v>18</v>
       </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>433</v>
+      <c r="C8" s="4" t="s">
+        <v>349</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>433</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="D10" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4146,8 +3539,6 @@
     <hyperlink ref="A6" r:id="rId6"/>
     <hyperlink ref="A7" r:id="rId7"/>
     <hyperlink ref="A8" r:id="rId8"/>
-    <hyperlink ref="A9" r:id="rId9"/>
-    <hyperlink ref="A10" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4155,10 +3546,10 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A6" sqref="A6:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4170,7 +3561,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>200</v>
+        <v>161</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -4184,7 +3575,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>201</v>
+        <v>162</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -4198,7 +3589,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>202</v>
+        <v>163</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -4212,7 +3603,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>203</v>
+        <v>164</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -4226,13 +3617,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>204</v>
+        <v>165</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>421</v>
+        <v>340</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -4240,71 +3631,43 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>205</v>
+        <v>166</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>349</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>206</v>
+        <v>167</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>349</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>207</v>
+        <v>168</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>433</v>
+        <v>18</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>349</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>433</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="D10" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4318,8 +3681,6 @@
     <hyperlink ref="A6" r:id="rId6"/>
     <hyperlink ref="A7" r:id="rId7"/>
     <hyperlink ref="A8" r:id="rId8"/>
-    <hyperlink ref="A9" r:id="rId9"/>
-    <hyperlink ref="A10" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4342,13 +3703,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>210</v>
+        <v>169</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>433</v>
+        <v>349</v>
       </c>
       <c r="D1" t="s">
         <v>12</v>
@@ -4356,13 +3717,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>211</v>
+        <v>170</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>433</v>
+        <v>349</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -4370,13 +3731,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>212</v>
+        <v>171</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>433</v>
+        <v>349</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -4411,13 +3772,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>233</v>
+        <v>188</v>
       </c>
       <c r="B1" t="s">
         <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>421</v>
+        <v>340</v>
       </c>
       <c r="D1" t="s">
         <v>12</v>
@@ -4426,13 +3787,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>234</v>
+        <v>189</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>433</v>
+        <v>349</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -4441,13 +3802,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>235</v>
+        <v>190</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>433</v>
+        <v>349</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -4456,13 +3817,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>236</v>
+        <v>191</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>433</v>
+        <v>349</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -4485,7 +3846,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A5" sqref="A5:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4498,7 +3859,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>237</v>
+        <v>192</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -4513,7 +3874,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>238</v>
+        <v>193</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -4528,7 +3889,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>239</v>
+        <v>194</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -4543,7 +3904,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>240</v>
+        <v>195</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -4557,44 +3918,44 @@
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>241</v>
+      <c r="A5" s="1" t="s">
+        <v>196</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>349</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>242</v>
+      <c r="A6" s="1" t="s">
+        <v>197</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>349</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>243</v>
+        <v>198</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>433</v>
+        <v>18</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>349</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -4602,33 +3963,9 @@
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>433</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
       <c r="E9" s="5"/>
     </row>
   </sheetData>
@@ -4640,8 +3977,6 @@
     <hyperlink ref="A5" r:id="rId5"/>
     <hyperlink ref="A6" r:id="rId6"/>
     <hyperlink ref="A7" r:id="rId7"/>
-    <hyperlink ref="A8" r:id="rId8"/>
-    <hyperlink ref="A9" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4652,7 +3987,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A6" sqref="A6:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4665,7 +4000,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>246</v>
+        <v>199</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -4680,7 +4015,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>247</v>
+        <v>200</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -4695,7 +4030,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>248</v>
+        <v>201</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -4710,7 +4045,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>249</v>
+        <v>202</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -4725,13 +4060,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>250</v>
+        <v>203</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>421</v>
+        <v>340</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -4740,43 +4075,43 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>251</v>
+        <v>204</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>349</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>252</v>
+        <v>205</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
+        <v>349</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B8" t="s">
         <v>18</v>
       </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>433</v>
+      <c r="C8" s="4" t="s">
+        <v>349</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -4784,47 +4119,21 @@
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>433</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
       <c r="E10" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A10" r:id="rId1"/>
-    <hyperlink ref="A9" r:id="rId2"/>
-    <hyperlink ref="A8" r:id="rId3"/>
-    <hyperlink ref="A7" r:id="rId4"/>
-    <hyperlink ref="A6" r:id="rId5" display="http://www.cisco.com/web/IN/products/unified_computing/services.html"/>
-    <hyperlink ref="A5" r:id="rId6"/>
-    <hyperlink ref="A4" r:id="rId7"/>
-    <hyperlink ref="A3" r:id="rId8"/>
-    <hyperlink ref="A2" r:id="rId9"/>
-    <hyperlink ref="A1" r:id="rId10"/>
+    <hyperlink ref="A8" r:id="rId1"/>
+    <hyperlink ref="A7" r:id="rId2"/>
+    <hyperlink ref="A6" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A4" r:id="rId5"/>
+    <hyperlink ref="A3" r:id="rId6"/>
+    <hyperlink ref="A2" r:id="rId7"/>
+    <hyperlink ref="A1" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4835,7 +4144,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A6" sqref="A6:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4849,7 +4158,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>256</v>
+        <v>207</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -4864,7 +4173,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>257</v>
+        <v>208</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -4879,7 +4188,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>258</v>
+        <v>209</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -4894,7 +4203,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>259</v>
+        <v>210</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -4909,13 +4218,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>260</v>
+        <v>211</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>421</v>
+        <v>340</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -4923,44 +4232,44 @@
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>261</v>
+      <c r="A6" s="2" t="s">
+        <v>212</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>349</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>262</v>
+        <v>213</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>349</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>263</v>
+        <v>214</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>433</v>
+        <v>18</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>349</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -4968,47 +4277,21 @@
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>433</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
       <c r="E10" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A10" r:id="rId1"/>
-    <hyperlink ref="A9" r:id="rId2"/>
-    <hyperlink ref="A8" r:id="rId3"/>
-    <hyperlink ref="A7" r:id="rId4"/>
-    <hyperlink ref="A6" r:id="rId5"/>
-    <hyperlink ref="A5" r:id="rId6"/>
-    <hyperlink ref="A4" r:id="rId7"/>
-    <hyperlink ref="A3" r:id="rId8"/>
-    <hyperlink ref="A2" r:id="rId9"/>
-    <hyperlink ref="A1" r:id="rId10"/>
+    <hyperlink ref="A8" r:id="rId1"/>
+    <hyperlink ref="A7" r:id="rId2"/>
+    <hyperlink ref="A6" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A4" r:id="rId5"/>
+    <hyperlink ref="A3" r:id="rId6"/>
+    <hyperlink ref="A2" r:id="rId7"/>
+    <hyperlink ref="A1" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5016,10 +4299,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A6" sqref="A6:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5031,7 +4314,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -5045,7 +4328,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -5059,7 +4342,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -5073,7 +4356,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -5087,85 +4370,57 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>421</v>
+        <v>340</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>38</v>
+      <c r="A6" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>349</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>39</v>
+      <c r="A7" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>349</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>433</v>
+        <v>18</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>349</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>433</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="D10" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5176,11 +4431,9 @@
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="A4" r:id="rId4"/>
     <hyperlink ref="A5" r:id="rId5"/>
-    <hyperlink ref="A6" r:id="rId6" display="http://www.cisco.com/cisco/web/UK/products/unified_computing/services.html"/>
+    <hyperlink ref="A6" r:id="rId6"/>
     <hyperlink ref="A7" r:id="rId7"/>
     <hyperlink ref="A8" r:id="rId8"/>
-    <hyperlink ref="A9" r:id="rId9"/>
-    <hyperlink ref="A10" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5188,10 +4441,10 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A6" sqref="A6:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5203,7 +4456,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>213</v>
+        <v>172</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -5217,7 +4470,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>214</v>
+        <v>173</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -5231,7 +4484,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>215</v>
+        <v>174</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -5245,7 +4498,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>216</v>
+        <v>175</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -5259,13 +4512,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>217</v>
+        <v>176</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>421</v>
+        <v>340</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -5273,71 +4526,43 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>218</v>
+        <v>177</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>349</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>219</v>
+        <v>178</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>349</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>220</v>
+        <v>179</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>433</v>
+        <v>18</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>349</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>433</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="D10" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5348,11 +4573,9 @@
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="A4" r:id="rId4"/>
     <hyperlink ref="A5" r:id="rId5"/>
-    <hyperlink ref="A6" r:id="rId6" display="http://www.cisco.com/web/KR/products/pc/unified_computing/services.html"/>
+    <hyperlink ref="A6" r:id="rId6"/>
     <hyperlink ref="A7" r:id="rId7"/>
     <hyperlink ref="A8" r:id="rId8"/>
-    <hyperlink ref="A9" r:id="rId9"/>
-    <hyperlink ref="A10" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5360,10 +4583,10 @@
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A6" sqref="A6:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5375,7 +4598,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>232</v>
+        <v>187</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -5389,7 +4612,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>231</v>
+        <v>186</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -5403,7 +4626,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>230</v>
+        <v>185</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -5417,7 +4640,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>229</v>
+        <v>184</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -5431,100 +4654,70 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>228</v>
+        <v>183</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>421</v>
+        <v>340</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>227</v>
+      <c r="A6" s="2" t="s">
+        <v>182</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>349</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>226</v>
+      <c r="A7" s="2" t="s">
+        <v>181</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>349</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>225</v>
+        <v>180</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>433</v>
+        <v>18</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>349</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>433</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="D10" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A10" r:id="rId1"/>
-    <hyperlink ref="A9" r:id="rId2"/>
-    <hyperlink ref="A8" r:id="rId3"/>
-    <hyperlink ref="A7" r:id="rId4"/>
-    <hyperlink ref="A6" r:id="rId5"/>
-    <hyperlink ref="A5" r:id="rId6"/>
-    <hyperlink ref="A4" r:id="rId7"/>
-    <hyperlink ref="A3" r:id="rId8"/>
-    <hyperlink ref="A2" r:id="rId9"/>
-    <hyperlink ref="A1" r:id="rId10"/>
+    <hyperlink ref="A8" r:id="rId1"/>
+    <hyperlink ref="A7" r:id="rId2"/>
+    <hyperlink ref="A6" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A4" r:id="rId5"/>
+    <hyperlink ref="A3" r:id="rId6"/>
+    <hyperlink ref="A2" r:id="rId7"/>
+    <hyperlink ref="A1" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5532,10 +4725,10 @@
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A6" sqref="A6:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5547,7 +4740,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>266</v>
+        <v>215</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -5561,7 +4754,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>267</v>
+        <v>216</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -5575,7 +4768,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>268</v>
+        <v>217</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -5589,7 +4782,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>269</v>
+        <v>218</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -5603,13 +4796,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>270</v>
+        <v>219</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>421</v>
+        <v>340</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -5617,86 +4810,56 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>271</v>
+        <v>220</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>349</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>272</v>
+      <c r="A7" s="2" t="s">
+        <v>221</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>349</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>273</v>
+        <v>222</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>433</v>
+        <v>18</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>349</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>433</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="D10" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A10" r:id="rId1"/>
-    <hyperlink ref="A9" r:id="rId2"/>
-    <hyperlink ref="A8" r:id="rId3"/>
-    <hyperlink ref="A7" r:id="rId4"/>
-    <hyperlink ref="A6" r:id="rId5"/>
-    <hyperlink ref="A5" r:id="rId6"/>
-    <hyperlink ref="A4" r:id="rId7"/>
-    <hyperlink ref="A3" r:id="rId8"/>
-    <hyperlink ref="A2" r:id="rId9"/>
-    <hyperlink ref="A1" r:id="rId10"/>
+    <hyperlink ref="A8" r:id="rId1"/>
+    <hyperlink ref="A7" r:id="rId2"/>
+    <hyperlink ref="A6" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A4" r:id="rId5"/>
+    <hyperlink ref="A3" r:id="rId6"/>
+    <hyperlink ref="A2" r:id="rId7"/>
+    <hyperlink ref="A1" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5704,10 +4867,10 @@
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A6" sqref="A6:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5720,7 +4883,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>276</v>
+        <v>223</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -5734,7 +4897,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>277</v>
+        <v>224</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -5748,7 +4911,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>278</v>
+        <v>225</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -5762,7 +4925,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>279</v>
+        <v>226</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -5776,13 +4939,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>280</v>
+        <v>227</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>421</v>
+        <v>340</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -5790,86 +4953,56 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>281</v>
+        <v>228</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>349</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>282</v>
+      <c r="A7" s="2" t="s">
+        <v>229</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>349</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>283</v>
+        <v>230</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>433</v>
+        <v>18</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>349</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>433</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="D10" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A10" r:id="rId1"/>
-    <hyperlink ref="A9" r:id="rId2"/>
-    <hyperlink ref="A8" r:id="rId3"/>
-    <hyperlink ref="A7" r:id="rId4"/>
-    <hyperlink ref="A6" r:id="rId5"/>
-    <hyperlink ref="A5" r:id="rId6"/>
-    <hyperlink ref="A4" r:id="rId7"/>
-    <hyperlink ref="A3" r:id="rId8"/>
-    <hyperlink ref="A2" r:id="rId9"/>
-    <hyperlink ref="A1" r:id="rId10"/>
+    <hyperlink ref="A8" r:id="rId1"/>
+    <hyperlink ref="A7" r:id="rId2"/>
+    <hyperlink ref="A6" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A4" r:id="rId5"/>
+    <hyperlink ref="A3" r:id="rId6"/>
+    <hyperlink ref="A2" r:id="rId7"/>
+    <hyperlink ref="A1" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5877,10 +5010,10 @@
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A6" sqref="A6:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5893,7 +5026,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>286</v>
+        <v>231</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -5907,7 +5040,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>287</v>
+        <v>232</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -5921,7 +5054,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>288</v>
+        <v>233</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -5935,7 +5068,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>289</v>
+        <v>234</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -5949,13 +5082,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>290</v>
+        <v>235</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>421</v>
+        <v>340</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -5963,86 +5096,56 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>291</v>
+        <v>236</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>349</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>292</v>
+        <v>237</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
+        <v>349</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B8" t="s">
         <v>18</v>
       </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>433</v>
+      <c r="C8" s="4" t="s">
+        <v>349</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>433</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="D10" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A10" r:id="rId1"/>
-    <hyperlink ref="A9" r:id="rId2"/>
-    <hyperlink ref="A8" r:id="rId3"/>
-    <hyperlink ref="A7" r:id="rId4"/>
-    <hyperlink ref="A6" r:id="rId5"/>
-    <hyperlink ref="A5" r:id="rId6"/>
-    <hyperlink ref="A4" r:id="rId7"/>
-    <hyperlink ref="A3" r:id="rId8"/>
-    <hyperlink ref="A2" r:id="rId9"/>
-    <hyperlink ref="A1" r:id="rId10"/>
+    <hyperlink ref="A8" r:id="rId1"/>
+    <hyperlink ref="A7" r:id="rId2"/>
+    <hyperlink ref="A6" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A4" r:id="rId5"/>
+    <hyperlink ref="A3" r:id="rId6"/>
+    <hyperlink ref="A2" r:id="rId7"/>
+    <hyperlink ref="A1" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6050,10 +5153,10 @@
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A6" sqref="A6:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6066,7 +5169,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>296</v>
+        <v>239</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -6080,7 +5183,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>297</v>
+        <v>240</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -6094,7 +5197,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>298</v>
+        <v>241</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -6108,7 +5211,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>299</v>
+        <v>242</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -6122,13 +5225,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>300</v>
+        <v>243</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>421</v>
+        <v>340</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -6136,86 +5239,56 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>301</v>
+        <v>244</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>349</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>302</v>
+        <v>245</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>349</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>303</v>
+        <v>246</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>433</v>
+        <v>18</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>349</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>433</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="D10" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A10" r:id="rId1"/>
-    <hyperlink ref="A9" r:id="rId2"/>
-    <hyperlink ref="A8" r:id="rId3"/>
-    <hyperlink ref="A7" r:id="rId4"/>
-    <hyperlink ref="A6" r:id="rId5"/>
-    <hyperlink ref="A5" r:id="rId6"/>
-    <hyperlink ref="A4" r:id="rId7"/>
-    <hyperlink ref="A3" r:id="rId8"/>
-    <hyperlink ref="A2" r:id="rId9"/>
-    <hyperlink ref="A1" r:id="rId10"/>
+    <hyperlink ref="A8" r:id="rId1"/>
+    <hyperlink ref="A7" r:id="rId2"/>
+    <hyperlink ref="A6" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A4" r:id="rId5"/>
+    <hyperlink ref="A3" r:id="rId6"/>
+    <hyperlink ref="A2" r:id="rId7"/>
+    <hyperlink ref="A1" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6239,13 +5312,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>306</v>
+        <v>247</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>433</v>
+        <v>349</v>
       </c>
       <c r="D1" t="s">
         <v>12</v>
@@ -6253,13 +5326,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>307</v>
+        <v>248</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>433</v>
+        <v>349</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -6267,13 +5340,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>308</v>
+        <v>249</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>433</v>
+        <v>349</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -6291,10 +5364,10 @@
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6307,7 +5380,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>309</v>
+        <v>250</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -6321,7 +5394,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>310</v>
+        <v>251</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -6335,7 +5408,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>311</v>
+        <v>252</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -6349,7 +5422,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>312</v>
+        <v>253</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -6363,100 +5436,70 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>313</v>
+        <v>254</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>421</v>
+        <v>340</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>314</v>
+      <c r="A6" s="1" t="s">
+        <v>255</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>349</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>315</v>
+      <c r="A7" s="1" t="s">
+        <v>256</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>349</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>316</v>
+        <v>257</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>433</v>
+        <v>18</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>349</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>433</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="D10" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A10" r:id="rId1"/>
-    <hyperlink ref="A9" r:id="rId2"/>
-    <hyperlink ref="A8" r:id="rId3"/>
-    <hyperlink ref="A7" r:id="rId4"/>
-    <hyperlink ref="A6" r:id="rId5"/>
-    <hyperlink ref="A5" r:id="rId6"/>
-    <hyperlink ref="A4" r:id="rId7"/>
-    <hyperlink ref="A3" r:id="rId8"/>
-    <hyperlink ref="A2" r:id="rId9"/>
-    <hyperlink ref="A1" r:id="rId10"/>
+    <hyperlink ref="A8" r:id="rId1"/>
+    <hyperlink ref="A7" r:id="rId2"/>
+    <hyperlink ref="A6" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A4" r:id="rId5"/>
+    <hyperlink ref="A3" r:id="rId6"/>
+    <hyperlink ref="A2" r:id="rId7"/>
+    <hyperlink ref="A1" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6464,10 +5507,10 @@
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A6" sqref="A6:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6480,7 +5523,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>319</v>
+        <v>258</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -6494,7 +5537,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>320</v>
+        <v>259</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -6508,7 +5551,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>321</v>
+        <v>260</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -6522,7 +5565,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>322</v>
+        <v>261</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -6536,13 +5579,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>323</v>
+        <v>262</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>421</v>
+        <v>340</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -6550,86 +5593,56 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>324</v>
+        <v>263</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>349</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>325</v>
+        <v>264</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>349</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>326</v>
+        <v>265</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>433</v>
+        <v>18</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>349</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>433</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="D10" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A10" r:id="rId1"/>
-    <hyperlink ref="A9" r:id="rId2"/>
-    <hyperlink ref="A8" r:id="rId3"/>
-    <hyperlink ref="A7" r:id="rId4"/>
-    <hyperlink ref="A6" r:id="rId5"/>
-    <hyperlink ref="A5" r:id="rId6"/>
-    <hyperlink ref="A4" r:id="rId7"/>
-    <hyperlink ref="A3" r:id="rId8"/>
-    <hyperlink ref="A2" r:id="rId9"/>
-    <hyperlink ref="A1" r:id="rId10"/>
+    <hyperlink ref="A8" r:id="rId1"/>
+    <hyperlink ref="A7" r:id="rId2"/>
+    <hyperlink ref="A6" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A4" r:id="rId5"/>
+    <hyperlink ref="A3" r:id="rId6"/>
+    <hyperlink ref="A2" r:id="rId7"/>
+    <hyperlink ref="A1" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6637,10 +5650,10 @@
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A6" sqref="A6:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6652,7 +5665,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>329</v>
+        <v>266</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -6666,7 +5679,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>330</v>
+        <v>267</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -6680,7 +5693,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>331</v>
+        <v>268</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -6694,7 +5707,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>332</v>
+        <v>269</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -6708,13 +5721,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>333</v>
+        <v>270</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>421</v>
+        <v>340</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -6722,86 +5735,56 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>334</v>
+        <v>271</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>349</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>335</v>
+        <v>272</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>349</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>336</v>
+        <v>273</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>433</v>
+        <v>18</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>349</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>433</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="D10" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A10" r:id="rId1"/>
-    <hyperlink ref="A9" r:id="rId2"/>
-    <hyperlink ref="A8" r:id="rId3"/>
-    <hyperlink ref="A7" r:id="rId4"/>
-    <hyperlink ref="A6" r:id="rId5"/>
-    <hyperlink ref="A5" r:id="rId6"/>
-    <hyperlink ref="A4" r:id="rId7"/>
-    <hyperlink ref="A3" r:id="rId8"/>
-    <hyperlink ref="A2" r:id="rId9"/>
-    <hyperlink ref="A1" r:id="rId10"/>
+    <hyperlink ref="A8" r:id="rId1"/>
+    <hyperlink ref="A7" r:id="rId2"/>
+    <hyperlink ref="A6" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A4" r:id="rId5"/>
+    <hyperlink ref="A3" r:id="rId6"/>
+    <hyperlink ref="A2" r:id="rId7"/>
+    <hyperlink ref="A1" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6809,10 +5792,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A6" sqref="A6:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6824,7 +5807,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>422</v>
+        <v>341</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -6838,7 +5821,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>423</v>
+        <v>342</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -6852,7 +5835,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>424</v>
+        <v>343</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -6866,7 +5849,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>425</v>
+        <v>344</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -6880,13 +5863,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>426</v>
+        <v>345</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>421</v>
+        <v>340</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -6894,71 +5877,43 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>427</v>
+        <v>346</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>349</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>428</v>
+      <c r="A7" s="2" t="s">
+        <v>347</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>349</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>429</v>
+        <v>348</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>433</v>
+        <v>18</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>349</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>433</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="D10" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6971,20 +5926,18 @@
     <hyperlink ref="A6" r:id="rId5"/>
     <hyperlink ref="A7" r:id="rId6"/>
     <hyperlink ref="A8" r:id="rId7"/>
-    <hyperlink ref="A9" r:id="rId8"/>
-    <hyperlink ref="A10" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A6" sqref="A6:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6997,7 +5950,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>339</v>
+        <v>274</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -7011,7 +5964,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>340</v>
+        <v>275</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -7025,7 +5978,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>341</v>
+        <v>276</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -7039,7 +5992,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>342</v>
+        <v>277</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -7053,100 +6006,70 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>343</v>
+        <v>278</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>421</v>
+        <v>340</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>344</v>
+      <c r="A6" s="1" t="s">
+        <v>279</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>349</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>345</v>
+        <v>280</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>349</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>346</v>
+        <v>281</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>433</v>
+        <v>18</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>349</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>433</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="D10" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A10" r:id="rId1"/>
-    <hyperlink ref="A9" r:id="rId2"/>
-    <hyperlink ref="A8" r:id="rId3"/>
-    <hyperlink ref="A7" r:id="rId4"/>
-    <hyperlink ref="A6" r:id="rId5"/>
-    <hyperlink ref="A5" r:id="rId6"/>
-    <hyperlink ref="A4" r:id="rId7"/>
-    <hyperlink ref="A3" r:id="rId8"/>
-    <hyperlink ref="A2" r:id="rId9"/>
-    <hyperlink ref="A1" r:id="rId10"/>
+    <hyperlink ref="A8" r:id="rId1"/>
+    <hyperlink ref="A7" r:id="rId2"/>
+    <hyperlink ref="A6" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A4" r:id="rId5"/>
+    <hyperlink ref="A3" r:id="rId6"/>
+    <hyperlink ref="A2" r:id="rId7"/>
+    <hyperlink ref="A1" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7154,10 +6077,10 @@
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A6" sqref="A6:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7170,7 +6093,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>349</v>
+        <v>282</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -7184,7 +6107,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>350</v>
+        <v>283</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -7198,7 +6121,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>351</v>
+        <v>284</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -7212,7 +6135,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>352</v>
+        <v>285</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -7226,100 +6149,70 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>353</v>
+        <v>286</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>421</v>
+        <v>340</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>354</v>
+      <c r="A6" s="1" t="s">
+        <v>287</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>349</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>355</v>
+      <c r="A7" s="1" t="s">
+        <v>288</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>349</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>356</v>
+        <v>289</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>433</v>
+        <v>18</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>349</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>433</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="D10" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A10" r:id="rId1"/>
-    <hyperlink ref="A9" r:id="rId2"/>
-    <hyperlink ref="A8" r:id="rId3"/>
-    <hyperlink ref="A7" r:id="rId4"/>
-    <hyperlink ref="A6" r:id="rId5"/>
-    <hyperlink ref="A5" r:id="rId6"/>
-    <hyperlink ref="A4" r:id="rId7"/>
-    <hyperlink ref="A3" r:id="rId8"/>
-    <hyperlink ref="A2" r:id="rId9"/>
-    <hyperlink ref="A1" r:id="rId10"/>
+    <hyperlink ref="A8" r:id="rId1"/>
+    <hyperlink ref="A7" r:id="rId2"/>
+    <hyperlink ref="A6" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A4" r:id="rId5"/>
+    <hyperlink ref="A3" r:id="rId6"/>
+    <hyperlink ref="A2" r:id="rId7"/>
+    <hyperlink ref="A1" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7327,10 +6220,10 @@
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A5" sqref="A5:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7343,7 +6236,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>359</v>
+        <v>290</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -7357,7 +6250,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>360</v>
+        <v>291</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -7371,7 +6264,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>361</v>
+        <v>292</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -7385,7 +6278,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>362</v>
+        <v>293</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -7398,86 +6291,56 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>363</v>
+      <c r="A5" s="1" t="s">
+        <v>294</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>349</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>364</v>
+      <c r="A6" s="1" t="s">
+        <v>295</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>349</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>365</v>
+        <v>296</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>433</v>
+        <v>18</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>349</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>433</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="D9" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A9" r:id="rId1"/>
-    <hyperlink ref="A8" r:id="rId2"/>
-    <hyperlink ref="A7" r:id="rId3"/>
-    <hyperlink ref="A6" r:id="rId4"/>
-    <hyperlink ref="A5" r:id="rId5"/>
-    <hyperlink ref="A4" r:id="rId6"/>
-    <hyperlink ref="A3" r:id="rId7"/>
-    <hyperlink ref="A2" r:id="rId8"/>
-    <hyperlink ref="A1" r:id="rId9"/>
+    <hyperlink ref="A7" r:id="rId1"/>
+    <hyperlink ref="A6" r:id="rId2"/>
+    <hyperlink ref="A5" r:id="rId3"/>
+    <hyperlink ref="A4" r:id="rId4"/>
+    <hyperlink ref="A3" r:id="rId5"/>
+    <hyperlink ref="A2" r:id="rId6"/>
+    <hyperlink ref="A1" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7485,10 +6348,10 @@
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A6" sqref="A6:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7501,7 +6364,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>368</v>
+        <v>297</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -7515,7 +6378,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>369</v>
+        <v>298</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -7529,7 +6392,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>370</v>
+        <v>299</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -7543,7 +6406,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>371</v>
+        <v>300</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -7557,13 +6420,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>372</v>
+        <v>301</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>421</v>
+        <v>340</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -7571,86 +6434,56 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>373</v>
+        <v>302</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>349</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>374</v>
+        <v>303</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>349</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>375</v>
+        <v>304</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>433</v>
+        <v>18</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>349</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>433</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="D10" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A10" r:id="rId1"/>
-    <hyperlink ref="A9" r:id="rId2"/>
-    <hyperlink ref="A8" r:id="rId3"/>
-    <hyperlink ref="A7" r:id="rId4"/>
-    <hyperlink ref="A6" r:id="rId5"/>
-    <hyperlink ref="A5" r:id="rId6"/>
-    <hyperlink ref="A4" r:id="rId7"/>
-    <hyperlink ref="A3" r:id="rId8"/>
-    <hyperlink ref="A2" r:id="rId9"/>
-    <hyperlink ref="A1" r:id="rId10"/>
+    <hyperlink ref="A8" r:id="rId1"/>
+    <hyperlink ref="A7" r:id="rId2"/>
+    <hyperlink ref="A6" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A4" r:id="rId5"/>
+    <hyperlink ref="A3" r:id="rId6"/>
+    <hyperlink ref="A2" r:id="rId7"/>
+    <hyperlink ref="A1" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7674,13 +6507,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>378</v>
+        <v>305</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>433</v>
+        <v>349</v>
       </c>
       <c r="D1" t="s">
         <v>12</v>
@@ -7688,13 +6521,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>379</v>
+        <v>306</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>433</v>
+        <v>349</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -7702,13 +6535,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>380</v>
+        <v>307</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>433</v>
+        <v>349</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -7726,10 +6559,10 @@
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A6" sqref="A6:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7741,7 +6574,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>381</v>
+        <v>308</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -7755,7 +6588,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>382</v>
+        <v>309</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -7769,7 +6602,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>383</v>
+        <v>310</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -7783,7 +6616,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>384</v>
+        <v>311</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -7797,13 +6630,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>385</v>
+        <v>312</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>421</v>
+        <v>340</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -7811,86 +6644,56 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>386</v>
+        <v>313</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>349</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>387</v>
+        <v>314</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>349</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>388</v>
+        <v>315</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>433</v>
+        <v>18</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>349</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>433</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="D10" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A10" r:id="rId1"/>
-    <hyperlink ref="A9" r:id="rId2"/>
-    <hyperlink ref="A8" r:id="rId3"/>
-    <hyperlink ref="A7" r:id="rId4"/>
-    <hyperlink ref="A6" r:id="rId5"/>
-    <hyperlink ref="A5" r:id="rId6"/>
-    <hyperlink ref="A4" r:id="rId7"/>
-    <hyperlink ref="A3" r:id="rId8"/>
-    <hyperlink ref="A2" r:id="rId9"/>
-    <hyperlink ref="A1" r:id="rId10"/>
+    <hyperlink ref="A8" r:id="rId1"/>
+    <hyperlink ref="A7" r:id="rId2"/>
+    <hyperlink ref="A6" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A4" r:id="rId5"/>
+    <hyperlink ref="A3" r:id="rId6"/>
+    <hyperlink ref="A2" r:id="rId7"/>
+    <hyperlink ref="A1" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7898,10 +6701,10 @@
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A6" sqref="A6:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7913,7 +6716,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>391</v>
+        <v>316</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -7927,7 +6730,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>392</v>
+        <v>317</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -7941,7 +6744,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>393</v>
+        <v>318</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -7955,7 +6758,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -7969,100 +6772,70 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>395</v>
+        <v>320</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>421</v>
+        <v>340</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>396</v>
+      <c r="A6" s="2" t="s">
+        <v>321</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>349</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>397</v>
+      <c r="A7" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
+        <v>349</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B8" t="s">
         <v>18</v>
       </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>433</v>
+      <c r="C8" s="4" t="s">
+        <v>349</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>433</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="D10" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A10" r:id="rId1"/>
-    <hyperlink ref="A9" r:id="rId2"/>
-    <hyperlink ref="A8" r:id="rId3"/>
-    <hyperlink ref="A7" r:id="rId4"/>
-    <hyperlink ref="A6" r:id="rId5"/>
-    <hyperlink ref="A5" r:id="rId6"/>
-    <hyperlink ref="A4" r:id="rId7"/>
-    <hyperlink ref="A3" r:id="rId8"/>
-    <hyperlink ref="A2" r:id="rId9"/>
-    <hyperlink ref="A1" r:id="rId10"/>
+    <hyperlink ref="A8" r:id="rId1"/>
+    <hyperlink ref="A7" r:id="rId2"/>
+    <hyperlink ref="A6" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A4" r:id="rId5"/>
+    <hyperlink ref="A3" r:id="rId6"/>
+    <hyperlink ref="A2" r:id="rId7"/>
+    <hyperlink ref="A1" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8070,10 +6843,10 @@
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A6" sqref="A6:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8085,7 +6858,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>401</v>
+        <v>324</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -8099,7 +6872,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>402</v>
+        <v>325</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -8113,7 +6886,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>403</v>
+        <v>326</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -8127,7 +6900,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>404</v>
+        <v>327</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -8141,13 +6914,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>405</v>
+        <v>328</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>421</v>
+        <v>340</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -8155,86 +6928,56 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>406</v>
+        <v>329</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>349</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>407</v>
+        <v>330</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>349</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>408</v>
+        <v>331</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>433</v>
+        <v>18</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>349</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>433</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="D10" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A10" r:id="rId1"/>
-    <hyperlink ref="A9" r:id="rId2"/>
-    <hyperlink ref="A8" r:id="rId3"/>
-    <hyperlink ref="A7" r:id="rId4"/>
-    <hyperlink ref="A6" r:id="rId5"/>
-    <hyperlink ref="A5" r:id="rId6"/>
-    <hyperlink ref="A4" r:id="rId7"/>
-    <hyperlink ref="A3" r:id="rId8"/>
-    <hyperlink ref="A2" r:id="rId9"/>
-    <hyperlink ref="A1" r:id="rId10"/>
+    <hyperlink ref="A8" r:id="rId1"/>
+    <hyperlink ref="A7" r:id="rId2"/>
+    <hyperlink ref="A6" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A4" r:id="rId5"/>
+    <hyperlink ref="A3" r:id="rId6"/>
+    <hyperlink ref="A2" r:id="rId7"/>
+    <hyperlink ref="A1" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8242,10 +6985,10 @@
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8257,7 +7000,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>411</v>
+        <v>332</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -8271,7 +7014,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>412</v>
+        <v>333</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -8285,7 +7028,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>413</v>
+        <v>334</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -8299,7 +7042,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>414</v>
+        <v>335</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -8313,100 +7056,70 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>415</v>
+        <v>336</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>421</v>
+        <v>340</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>416</v>
+      <c r="A6" s="1" t="s">
+        <v>337</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>349</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>417</v>
+      <c r="A7" s="1" t="s">
+        <v>338</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>349</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>418</v>
+        <v>339</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>433</v>
+        <v>18</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>349</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>433</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="D10" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A10" r:id="rId1"/>
-    <hyperlink ref="A9" r:id="rId2"/>
-    <hyperlink ref="A8" r:id="rId3"/>
-    <hyperlink ref="A7" r:id="rId4"/>
-    <hyperlink ref="A6" r:id="rId5"/>
-    <hyperlink ref="A5" r:id="rId6"/>
-    <hyperlink ref="A4" r:id="rId7"/>
-    <hyperlink ref="A3" r:id="rId8"/>
-    <hyperlink ref="A2" r:id="rId9"/>
-    <hyperlink ref="A1" r:id="rId10"/>
+    <hyperlink ref="A8" r:id="rId1"/>
+    <hyperlink ref="A7" r:id="rId2"/>
+    <hyperlink ref="A6" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A4" r:id="rId5"/>
+    <hyperlink ref="A3" r:id="rId6"/>
+    <hyperlink ref="A2" r:id="rId7"/>
+    <hyperlink ref="A1" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8414,10 +7127,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8429,7 +7142,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -8443,7 +7156,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -8457,7 +7170,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -8471,7 +7184,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -8485,13 +7198,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>421</v>
+        <v>340</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -8499,71 +7212,43 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>349</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>49</v>
+      <c r="A7" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>349</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>433</v>
+        <v>18</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>349</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>433</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="D10" t="s">
         <v>12</v>
       </c>
     </row>
@@ -8577,8 +7262,6 @@
     <hyperlink ref="A6" r:id="rId6"/>
     <hyperlink ref="A7" r:id="rId7"/>
     <hyperlink ref="A8" r:id="rId8"/>
-    <hyperlink ref="A9" r:id="rId9"/>
-    <hyperlink ref="A10" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8586,10 +7269,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A6" sqref="A6:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8601,7 +7284,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -8615,7 +7298,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -8629,7 +7312,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -8643,7 +7326,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -8657,85 +7340,57 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>421</v>
+        <v>340</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>58</v>
+      <c r="A6" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>349</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>349</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>433</v>
+        <v>18</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>349</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>433</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="D10" t="s">
         <v>12</v>
       </c>
     </row>
@@ -8749,8 +7404,6 @@
     <hyperlink ref="A6" r:id="rId6"/>
     <hyperlink ref="A7" r:id="rId7"/>
     <hyperlink ref="A8" r:id="rId8"/>
-    <hyperlink ref="A9" r:id="rId9"/>
-    <hyperlink ref="A10" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8758,9 +7411,9 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -8773,7 +7426,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -8787,7 +7440,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -8801,7 +7454,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -8815,7 +7468,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -8829,100 +7482,70 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>421</v>
+        <v>340</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>68</v>
+      <c r="A6" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>349</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>69</v>
+      <c r="A7" s="7" t="s">
+        <v>350</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>349</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>433</v>
+        <v>18</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>349</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>434</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>433</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="D10" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A10" r:id="rId1"/>
-    <hyperlink ref="A8" r:id="rId2"/>
-    <hyperlink ref="A7" r:id="rId3" display="http://www.cisco.com/web/ME/ar/products/storage/index.html"/>
-    <hyperlink ref="A6" r:id="rId4"/>
-    <hyperlink ref="A5" r:id="rId5"/>
-    <hyperlink ref="A4" r:id="rId6"/>
-    <hyperlink ref="A3" r:id="rId7"/>
-    <hyperlink ref="A2" r:id="rId8"/>
-    <hyperlink ref="A1" r:id="rId9"/>
-    <hyperlink ref="A9" r:id="rId10"/>
+    <hyperlink ref="A8" r:id="rId1"/>
+    <hyperlink ref="A6" r:id="rId2"/>
+    <hyperlink ref="A5" r:id="rId3"/>
+    <hyperlink ref="A4" r:id="rId4"/>
+    <hyperlink ref="A3" r:id="rId5"/>
+    <hyperlink ref="A2" r:id="rId6"/>
+    <hyperlink ref="A1" r:id="rId7"/>
+    <hyperlink ref="A7" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8930,10 +7553,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A5" sqref="A5:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8945,7 +7568,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -8959,7 +7582,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -8973,7 +7596,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -8987,7 +7610,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -9001,71 +7624,43 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>349</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>349</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>433</v>
+        <v>18</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>349</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>433</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="D9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -9078,8 +7673,6 @@
     <hyperlink ref="A5" r:id="rId5"/>
     <hyperlink ref="A6" r:id="rId6"/>
     <hyperlink ref="A7" r:id="rId7"/>
-    <hyperlink ref="A8" r:id="rId8"/>
-    <hyperlink ref="A9" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9087,10 +7680,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A5" sqref="A5:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9102,7 +7695,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -9116,7 +7709,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -9130,7 +7723,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -9144,13 +7737,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>421</v>
+        <v>340</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -9158,71 +7751,43 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>349</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>349</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>433</v>
+        <v>18</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>349</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>433</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="D9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -9235,8 +7800,6 @@
     <hyperlink ref="A5" r:id="rId5"/>
     <hyperlink ref="A6" r:id="rId6"/>
     <hyperlink ref="A7" r:id="rId7"/>
-    <hyperlink ref="A8" r:id="rId8"/>
-    <hyperlink ref="A9" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
